--- a/matlab/waveform/waveform.xlsx
+++ b/matlab/waveform/waveform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="3345" windowWidth="25905" windowHeight="9045" tabRatio="500"/>
+    <workbookView xWindow="6135" yWindow="-15" windowWidth="12930" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t>folder</t>
   </si>
@@ -71,9 +71,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>coreQPow</t>
-  </si>
-  <si>
     <t>rmsv1</t>
   </si>
   <si>
@@ -257,10 +254,10 @@
     <t>ipb4-44</t>
   </si>
   <si>
-    <t>ns</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>coreQPow(log)</t>
+  </si>
+  <si>
+    <t>coreQPow(j)</t>
   </si>
 </sst>
 </file>
@@ -683,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32:X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -705,16 +702,17 @@
     <col min="14" max="14" width="11.7109375" style="2"/>
     <col min="15" max="15" width="3.5703125" style="2"/>
     <col min="16" max="16" width="12.140625" style="2"/>
-    <col min="17" max="17" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="3"/>
+    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="3"/>
-    <col min="26" max="1025" width="8.85546875" style="2"/>
+    <col min="25" max="25" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="1025" width="8.85546875" style="2"/>
     <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,45 +762,39 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -838,21 +830,21 @@
         <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="2">
         <v>160</v>
@@ -888,21 +880,21 @@
         <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>350</v>
@@ -938,21 +930,21 @@
         <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>350</v>
@@ -988,21 +980,21 @@
         <v>50</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1038,21 +1030,21 @@
         <v>50</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>200</v>
@@ -1088,21 +1080,21 @@
         <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>150</v>
@@ -1138,21 +1130,21 @@
         <v>50</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="2">
         <v>200</v>
@@ -1189,21 +1181,21 @@
         <v>50</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2">
         <v>200</v>
@@ -1240,21 +1232,21 @@
         <v>50</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="2">
         <v>350</v>
@@ -1291,21 +1283,21 @@
         <v>50</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="2">
         <v>350</v>
@@ -1342,21 +1334,21 @@
         <v>50</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
@@ -1392,21 +1384,21 @@
         <v>75</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
         <v>275</v>
@@ -1442,21 +1434,21 @@
         <v>50</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="2">
         <v>300</v>
@@ -1492,10 +1484,10 @@
         <v>28.1</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="3">
         <v>3.9368799999999999</v>
@@ -1510,15 +1502,15 @@
         <v>5.6827560000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="2">
         <v>300</v>
@@ -1554,10 +1546,10 @@
         <v>28.1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="3">
         <v>4.5013779999999999</v>
@@ -1572,15 +1564,15 @@
         <v>5.6900320000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:28">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="2">
         <v>300</v>
@@ -1617,21 +1609,21 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2">
         <v>300</v>
@@ -1667,21 +1659,21 @@
         <v>6.25</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="2">
         <v>100</v>
@@ -1717,21 +1709,21 @@
         <v>50</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2">
         <v>100</v>
@@ -1767,21 +1759,21 @@
         <v>50</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2">
         <v>100</v>
@@ -1817,21 +1809,21 @@
         <v>100</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
         <v>325</v>
@@ -1867,21 +1859,21 @@
         <v>75</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D23" s="2">
         <v>250</v>
@@ -1917,21 +1909,21 @@
         <v>57.5</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2">
         <v>250</v>
@@ -1967,21 +1959,21 @@
         <v>75</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2">
         <v>250</v>
@@ -2017,21 +2009,21 @@
         <v>67.5</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D26" s="2">
         <v>250</v>
@@ -2067,21 +2059,21 @@
         <v>67.5</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2">
         <v>250</v>
@@ -2117,21 +2109,21 @@
         <v>75</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2">
         <v>250</v>
@@ -2167,21 +2159,21 @@
         <v>67.5</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2">
         <v>250</v>
@@ -2217,21 +2209,21 @@
         <v>67.5</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2">
         <v>250</v>
@@ -2267,21 +2259,21 @@
         <v>75</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2">
         <v>300</v>
@@ -2314,36 +2306,52 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="O31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q31" s="3">
-        <v>0.34720099999999998</v>
+        <v>0.32926800000000001</v>
       </c>
       <c r="R31" s="3">
-        <v>5.8871469999999997</v>
+        <v>5.8822999999999999</v>
       </c>
       <c r="S31" s="3">
-        <v>5.749053</v>
+        <v>5.7511340000000004</v>
       </c>
       <c r="T31" s="3">
-        <v>5.4046849999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>5.3957240000000004</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.31009503308842501</v>
+      </c>
+      <c r="V31" s="3">
+        <v>5.7907683503593796</v>
+      </c>
+      <c r="W31" s="3">
+        <v>5.6656691506201096</v>
+      </c>
+      <c r="X31" s="3">
+        <v>5.35313828972133</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" ht="15">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2">
         <v>300</v>
@@ -2376,24 +2384,52 @@
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="Q32" s="3">
+        <v>0.75167600000000001</v>
+      </c>
+      <c r="R32" s="3">
+        <v>7.8483010000000002</v>
+      </c>
+      <c r="S32" s="3">
+        <v>7.6242330000000003</v>
+      </c>
+      <c r="T32" s="3">
+        <v>7.2113100000000001</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.69518119667081901</v>
+      </c>
+      <c r="V32" s="3">
+        <v>7.7269948552311698</v>
+      </c>
+      <c r="W32" s="3">
+        <v>7.51758250343185</v>
+      </c>
+      <c r="X32" s="3">
+        <v>7.1690879268755898</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="1:28" ht="15">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D33" s="2">
         <v>300</v>
@@ -2426,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="O33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="Q33" s="3">
         <v>0.69364000000000003</v>
@@ -2447,27 +2483,31 @@
         <v>5.2942289999999996</v>
       </c>
       <c r="U33" s="3">
-        <v>0.60965827784468696</v>
+        <v>0.76099041541326395</v>
       </c>
       <c r="V33" s="3">
-        <v>5.7929495364691403</v>
+        <v>5.8699981936216297</v>
       </c>
       <c r="W33" s="3">
-        <v>5.5607502429803297</v>
+        <v>5.56921886208481</v>
       </c>
       <c r="X33" s="3">
-        <v>5.3299313939745998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>5.4638577165093603</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="1:28" ht="15">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2">
         <v>300</v>
@@ -2500,95 +2540,42 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2">
-        <v>300</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F35" s="2">
-        <v>150</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="L35" s="2">
-        <v>50</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>75</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0.32926800000000001</v>
-      </c>
-      <c r="R35" s="3">
-        <v>5.8822999999999999</v>
-      </c>
-      <c r="S35" s="3">
-        <v>5.7511340000000004</v>
-      </c>
-      <c r="T35" s="3">
-        <v>5.3957240000000004</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0.56916228012532899</v>
-      </c>
-      <c r="V35" s="3">
-        <v>5.7795794764423301</v>
-      </c>
-      <c r="W35" s="3">
-        <v>5.5621072759821102</v>
-      </c>
-      <c r="X35" s="3">
-        <v>5.3128603389735103</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>4.95</v>
-      </c>
-      <c r="Z35" s="2">
-        <f>16.5/(Y35*0.4)*0.0847253</f>
-        <v>0.70604416666666658</v>
-      </c>
+      <c r="Q34" s="3">
+        <v>1.243671</v>
+      </c>
+      <c r="R34" s="3">
+        <v>7.7440819999999997</v>
+      </c>
+      <c r="S34" s="3">
+        <v>7.364554</v>
+      </c>
+      <c r="T34" s="3">
+        <v>7.0506279999999997</v>
+      </c>
+      <c r="U34" s="3">
+        <v>1.13064213727628</v>
+      </c>
+      <c r="V34" s="3">
+        <v>7.7568453051029804</v>
+      </c>
+      <c r="W34" s="3">
+        <v>7.41349024884199</v>
+      </c>
+      <c r="X34" s="3">
+        <v>7.1113147969694204</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>

--- a/matlab/waveform/waveform.xlsx
+++ b/matlab/waveform/waveform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="-15" windowWidth="12930" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="9600" yWindow="195" windowWidth="13290" windowHeight="10245" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="90">
   <si>
     <t>folder</t>
   </si>
@@ -258,6 +258,39 @@
   </si>
   <si>
     <t>coreQPow(j)</t>
+  </si>
+  <si>
+    <t>050817</t>
+  </si>
+  <si>
+    <t>2000ns-slow-square.csv</t>
+  </si>
+  <si>
+    <t>square-cal</t>
+  </si>
+  <si>
+    <t>7000ns-50v-30kHz-square-cal.csv</t>
+  </si>
+  <si>
+    <t>050917</t>
+  </si>
+  <si>
+    <t>6000ns-1.csv</t>
+  </si>
+  <si>
+    <t>6000ns-2.csv</t>
+  </si>
+  <si>
+    <t>6000ns-3.csv</t>
+  </si>
+  <si>
+    <t>6000ns-4.csv</t>
+  </si>
+  <si>
+    <t>6000ns-5.csv</t>
+  </si>
+  <si>
+    <t>6000ns-6.csv</t>
   </si>
 </sst>
 </file>
@@ -680,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32:X32"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2423,25 +2456,25 @@
     </row>
     <row r="33" spans="1:28" ht="15">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E33" s="2">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
         <v>2.0299999999999998</v>
@@ -2453,46 +2486,23 @@
         <v>0.05</v>
       </c>
       <c r="K33" s="2">
+        <f>0.91*1</f>
         <v>0.91</v>
       </c>
       <c r="L33" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>37.5</v>
+        <v>31.3</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0.69364000000000003</v>
-      </c>
-      <c r="R33" s="3">
-        <v>5.8062690000000003</v>
-      </c>
-      <c r="S33" s="3">
-        <v>5.5236720000000004</v>
-      </c>
-      <c r="T33" s="3">
-        <v>5.2942289999999996</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0.76099041541326395</v>
-      </c>
-      <c r="V33" s="3">
-        <v>5.8699981936216297</v>
-      </c>
-      <c r="W33" s="3">
-        <v>5.56921886208481</v>
-      </c>
-      <c r="X33" s="3">
-        <v>5.4638577165093603</v>
+        <v>81</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -2501,25 +2511,25 @@
     </row>
     <row r="34" spans="1:28" ht="15">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2">
         <v>300</v>
       </c>
       <c r="E34" s="2">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="F34" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H34" s="2">
         <v>2.0299999999999998</v>
@@ -2528,54 +2538,672 @@
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K34" s="2">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L34" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>1.243671</v>
-      </c>
-      <c r="R34" s="3">
-        <v>7.7440819999999997</v>
-      </c>
-      <c r="S34" s="3">
-        <v>7.364554</v>
-      </c>
-      <c r="T34" s="3">
-        <v>7.0506279999999997</v>
-      </c>
-      <c r="U34" s="3">
-        <v>1.13064213727628</v>
-      </c>
-      <c r="V34" s="3">
-        <v>7.7568453051029804</v>
-      </c>
-      <c r="W34" s="3">
-        <v>7.41349024884199</v>
-      </c>
-      <c r="X34" s="3">
-        <v>7.1113147969694204</v>
+        <v>81</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="1:28" ht="15">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2">
+        <v>300</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>40</v>
+      </c>
+      <c r="G35" s="2">
+        <v>66</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L35" s="2">
+        <v>200</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>10</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="1:28" ht="15">
+      <c r="A36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2">
+        <v>300</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>40</v>
+      </c>
+      <c r="G36" s="2">
+        <v>63</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L36" s="2">
+        <v>200</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>10</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="1:28" ht="15">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2">
+        <v>300</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F37" s="2">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2">
+        <v>38</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L37" s="2">
+        <v>200</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>10</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:28" ht="15">
+      <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2">
+        <v>300</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>40</v>
+      </c>
+      <c r="G38" s="2">
+        <v>25</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L38" s="2">
+        <v>200</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>10</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="1:28" ht="15">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="2">
+        <v>300</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>40</v>
+      </c>
+      <c r="G39" s="2">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L39" s="2">
+        <v>200</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>10</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:28" ht="15">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="2">
+        <v>300</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>40</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L40" s="2">
+        <v>200</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>10</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="1:28" ht="15">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2">
+        <v>300</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="2">
+        <v>150</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="L41" s="2">
+        <v>50</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.69364000000000003</v>
+      </c>
+      <c r="R41" s="3">
+        <v>5.8062690000000003</v>
+      </c>
+      <c r="S41" s="3">
+        <v>5.5236720000000004</v>
+      </c>
+      <c r="T41" s="3">
+        <v>5.2942289999999996</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0.76099041541326395</v>
+      </c>
+      <c r="V41" s="3">
+        <v>5.8699981936216297</v>
+      </c>
+      <c r="W41" s="3">
+        <v>5.56921886208481</v>
+      </c>
+      <c r="X41" s="3">
+        <v>5.4638577165093603</v>
+      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="1:28" ht="15">
+      <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="2">
+        <v>300</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="2">
+        <v>200</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="L42" s="2">
+        <v>50</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>50</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1.243671</v>
+      </c>
+      <c r="R42" s="3">
+        <v>7.7440819999999997</v>
+      </c>
+      <c r="S42" s="3">
+        <v>7.364554</v>
+      </c>
+      <c r="T42" s="3">
+        <v>7.0506279999999997</v>
+      </c>
+      <c r="U42" s="3">
+        <v>1.13064213727628</v>
+      </c>
+      <c r="V42" s="3">
+        <v>7.7568453051029804</v>
+      </c>
+      <c r="W42" s="3">
+        <v>7.41349024884199</v>
+      </c>
+      <c r="X42" s="3">
+        <v>7.1113147969694204</v>
+      </c>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="1:28" ht="15">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2">
+        <v>200</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F43" s="2">
+        <v>40</v>
+      </c>
+      <c r="G43" s="2">
+        <v>21</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L43" s="2">
+        <v>200</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>10</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="1:28" ht="15">
+      <c r="A44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2">
+        <v>200</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F44" s="2">
+        <v>40</v>
+      </c>
+      <c r="G44" s="2">
+        <v>13</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L44" s="2">
+        <v>200</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>10</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="1:28" ht="15">
+      <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="2">
+        <v>200</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="2">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2">
+        <v>67</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L45" s="2">
+        <v>200</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>10</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>

--- a/matlab/waveform/waveform.xlsx
+++ b/matlab/waveform/waveform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="195" windowWidth="13290" windowHeight="10245" tabRatio="500"/>
+    <workbookView xWindow="6090" yWindow="-60" windowWidth="20175" windowHeight="10245" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="102">
   <si>
     <t>folder</t>
   </si>
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>6000ns-6.csv</t>
+  </si>
+  <si>
+    <t>4x</t>
+  </si>
+  <si>
+    <t>050115</t>
+  </si>
+  <si>
+    <t>NiTubeTerm_290V2nSppt.csv</t>
+  </si>
+  <si>
+    <t>NiTubeTop_290V2nSppt.csv</t>
+  </si>
+  <si>
+    <t>051117</t>
+  </si>
+  <si>
+    <t>6000ns-40v-45kHz.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-66kHz.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-12kHz-wo-lpf.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-21kHz-wo-lpf.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-66kHz-wo-lpf.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-38kHz-w-lpf.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-66kHz-w-lpf.csv</t>
   </si>
 </sst>
 </file>
@@ -317,12 +353,48 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,13 +409,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,15 +797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2"/>
     <col min="3" max="3" width="28.28515625" style="2"/>
     <col min="4" max="4" width="12.5703125" style="2"/>
@@ -745,7 +829,7 @@
     <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,15 +903,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -869,18 +953,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -889,7 +973,7 @@
         <v>300</v>
       </c>
       <c r="G3" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2">
         <v>2.0299999999999998</v>
@@ -916,652 +1000,756 @@
         <v>22</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7">
+        <v>200</v>
+      </c>
+      <c r="E4" s="7">
+        <f>1/(G4*1000*0.4*0.00000001)</f>
+        <v>24999.999999999996</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="L4" s="7">
+        <v>100</v>
+      </c>
+      <c r="M4" s="7">
+        <v>500</v>
+      </c>
+      <c r="N4" s="7">
+        <v>50</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>200</v>
+      </c>
+      <c r="E5" s="7">
+        <f>1/(G5*1000*0.4*0.00000001)</f>
+        <v>24999.999999999996</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="L5" s="7">
+        <v>100</v>
+      </c>
+      <c r="M5" s="7">
+        <v>500</v>
+      </c>
+      <c r="N5" s="7">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+    </row>
+    <row r="6" spans="1:25" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7">
+        <v>300</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>230</v>
+      </c>
+      <c r="G6" s="7">
+        <v>73</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="L6" s="7">
+        <v>50</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="2" t="s">
+      <c r="Q6" s="17">
+        <v>3.9368799999999999</v>
+      </c>
+      <c r="R6" s="17">
+        <v>7.4237500000000001</v>
+      </c>
+      <c r="S6" s="17">
+        <v>6.2778910000000003</v>
+      </c>
+      <c r="T6" s="17">
+        <v>5.6827560000000004</v>
+      </c>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+    </row>
+    <row r="7" spans="1:25" s="15" customFormat="1">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15">
+        <v>100</v>
+      </c>
+      <c r="E7" s="15">
+        <v>100</v>
+      </c>
+      <c r="F7" s="15">
+        <v>300</v>
+      </c>
+      <c r="G7" s="15">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="L7" s="15">
+        <v>50</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>50</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" s="15" customFormat="1">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15">
+        <v>160</v>
+      </c>
+      <c r="E8" s="15">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15">
+        <v>300</v>
+      </c>
+      <c r="G8" s="15">
+        <v>20</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I8" s="15">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="L8" s="15">
+        <v>50</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>50</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" s="15" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D9" s="15">
         <v>350</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E9" s="15">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F9" s="15">
         <v>300</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G9" s="15">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H9" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I9" s="15">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J9" s="15">
         <v>0.05</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K9" s="15">
         <v>0.95</v>
       </c>
-      <c r="L4" s="2">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>50</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="L9" s="15">
+        <v>50</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>50</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="2" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:25" s="15" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D10" s="15">
         <v>350</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E10" s="15">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F10" s="15">
         <v>300</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G10" s="15">
         <v>41</v>
       </c>
-      <c r="H5" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H10" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I10" s="15">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J10" s="15">
         <v>0.05</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K10" s="15">
         <v>0.97</v>
       </c>
-      <c r="L5" s="2">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>50</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="L10" s="15">
+        <v>50</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>50</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="2" t="s">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" s="15" customFormat="1">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D11" s="15">
         <v>300</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E11" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F11" s="15">
         <v>300</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G11" s="15">
         <v>60</v>
       </c>
-      <c r="H6" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H11" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I11" s="15">
         <v>4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J11" s="15">
         <v>0.05</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K11" s="15">
         <v>0.95</v>
       </c>
-      <c r="L6" s="2">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>50</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="L11" s="15">
+        <v>50</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>50</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:25" s="15" customFormat="1">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15">
+        <v>350</v>
+      </c>
+      <c r="E12" s="15">
         <v>100</v>
       </c>
-      <c r="F7" s="2">
-        <v>300</v>
-      </c>
-      <c r="G7" s="2">
-        <v>70</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="2">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>50</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2">
-        <v>150</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L8" s="2">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>50</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2">
-        <v>200</v>
-      </c>
-      <c r="E9" s="2">
-        <f>1/(G9*1000*0.4*0.00000001)</f>
-        <v>24999.999999999996</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L9" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2">
-        <v>500</v>
-      </c>
-      <c r="N9" s="2">
-        <v>50</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200</v>
-      </c>
-      <c r="E10" s="2">
-        <f>1/(G10*1000*0.4*0.00000001)</f>
-        <v>24999.999999999996</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L10" s="2">
-        <v>100</v>
-      </c>
-      <c r="M10" s="2">
-        <v>500</v>
-      </c>
-      <c r="N10" s="2">
-        <v>50</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2">
-        <v>350</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="F12" s="15">
         <f>37.5*8</f>
         <v>300</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="15">
         <v>89</v>
       </c>
-      <c r="H11" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H12" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I12" s="15">
         <v>2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="15">
         <v>0.03</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="15">
         <v>0.95</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L12" s="15">
         <v>100</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>50</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>50</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="2" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:25" s="15" customFormat="1">
+      <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="15">
         <v>350</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="15">
         <v>100</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="15">
         <f>37.5*8</f>
         <v>300</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="15">
         <v>89</v>
       </c>
-      <c r="H12" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H13" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I13" s="15">
         <v>2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="15">
         <v>0.05</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="15">
         <v>0.91</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L13" s="15">
         <v>100</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>50</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>50</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="2" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:25" s="15" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="15">
         <v>25</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="15">
         <v>100</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="15">
         <v>350</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="15">
         <v>47</v>
       </c>
-      <c r="H13" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H14" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I14" s="15">
         <v>2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="15">
         <v>0.04</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="15">
         <v>0.91</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="15">
         <v>40</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
         <v>75</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="O14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="2" t="s">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="1:25" s="15" customFormat="1">
+      <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="15">
         <v>275</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="15">
         <v>100</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="15">
         <v>200</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="15">
         <v>45</v>
       </c>
-      <c r="H14" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H15" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I15" s="15">
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J15" s="15">
         <v>0.05</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="15">
         <v>0.91</v>
       </c>
-      <c r="L14" s="2">
-        <v>50</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>50</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="L15" s="15">
+        <v>50</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>50</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2">
-        <v>300</v>
-      </c>
-      <c r="E15" s="2">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2">
-        <v>230</v>
-      </c>
-      <c r="G15" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L15" s="2">
-        <v>50</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3.9368799999999999</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7.4237500000000001</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6.2778910000000003</v>
-      </c>
-      <c r="T15" s="3">
-        <v>5.6827560000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E16" s="2">
         <v>100</v>
       </c>
       <c r="F16" s="2">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2">
         <v>1.56</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2">
         <v>0.05</v>
@@ -1576,1041 +1764,1038 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
+        <v>50</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="13" customFormat="1">
+      <c r="A17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="13">
+        <v>300</v>
+      </c>
+      <c r="E17" s="13">
+        <v>100</v>
+      </c>
+      <c r="F17" s="13">
+        <v>230</v>
+      </c>
+      <c r="G17" s="13">
+        <v>73</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="13">
+        <v>50</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
         <v>28.1</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="P17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="14">
         <v>4.5013779999999999</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R17" s="14">
         <v>7.4478359999999997</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S17" s="14">
         <v>6.1393500000000003</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T17" s="14">
         <v>5.6900320000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" spans="1:25" s="13" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13">
+        <v>150</v>
+      </c>
+      <c r="E18" s="13">
+        <v>100</v>
+      </c>
+      <c r="F18" s="13">
         <v>300</v>
       </c>
-      <c r="E17" s="2">
-        <f>1/(G17*1000*0.4*0.00000001)</f>
-        <v>24999.999999999996</v>
-      </c>
-      <c r="F17" s="2">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L17" s="2">
-        <v>100</v>
-      </c>
-      <c r="M17" s="2">
-        <v>500</v>
-      </c>
-      <c r="N17" s="2">
-        <v>2</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2">
-        <v>300</v>
-      </c>
-      <c r="E18" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F18" s="2">
-        <v>25</v>
-      </c>
-      <c r="G18" s="2">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L18" s="2">
-        <v>100</v>
-      </c>
-      <c r="M18" s="2">
-        <v>500</v>
-      </c>
-      <c r="N18" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="G18" s="13">
+        <v>70</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L18" s="13">
+        <v>50</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>50</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E19" s="2">
-        <v>100</v>
+        <f>1/(G19*1000*0.4*0.00000001)</f>
+        <v>24999.999999999996</v>
       </c>
       <c r="F19" s="2">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>2.0299999999999998</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="L19" s="2">
         <v>100</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N19" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2">
+        <v>300</v>
+      </c>
+      <c r="E20" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="L20" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2">
+        <v>500</v>
+      </c>
+      <c r="N20" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="8">
         <v>100</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="8">
         <v>100</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="8">
         <v>40</v>
       </c>
-      <c r="H20" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H21" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I21" s="8">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J21" s="8">
         <v>0.05</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="8">
         <v>0.95</v>
       </c>
-      <c r="L20" s="2">
-        <v>50</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>50</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="2" t="s">
+      <c r="L21" s="8">
+        <v>50</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>50</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:25">
+      <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="8">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="8">
         <v>100</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="8">
         <v>300</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="8">
         <v>40</v>
       </c>
-      <c r="H21" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H22" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I22" s="8">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="9">
         <v>0.05</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="8">
         <v>0.95</v>
       </c>
-      <c r="L21" s="2">
-        <v>50</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="L22" s="8">
+        <v>50</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
         <v>100</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="2" t="s">
+      <c r="O22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:25">
+      <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="8">
         <v>325</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="8">
         <v>150</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="8">
         <v>275</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="8">
         <v>88</v>
       </c>
-      <c r="H22" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H23" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I23" s="8">
         <v>1</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="9">
         <v>0.05</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="8">
         <v>0.95</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L23" s="8">
         <v>100</v>
       </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
         <v>75</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="O23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:25">
+      <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="8">
         <v>250</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="8">
         <v>100</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="8">
         <v>300</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="8">
         <v>73</v>
       </c>
-      <c r="H23" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H24" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I24" s="8">
         <v>1</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="8">
         <v>0.05</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="8">
         <v>0.94</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="8">
         <v>55</v>
       </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
         <v>57.5</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="2" t="s">
+      <c r="O24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:25">
+      <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="8">
         <v>250</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="8">
         <v>300</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="8">
         <v>300</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="8">
         <v>73</v>
       </c>
-      <c r="H24" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H25" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I25" s="8">
         <v>1</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J25" s="8">
         <v>0.05</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="8">
         <v>0.91</v>
       </c>
-      <c r="L24" s="2">
-        <v>50</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="L25" s="8">
+        <v>50</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
         <v>75</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="O25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:25">
+      <c r="A26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="8">
         <v>250</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="8">
         <v>400</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="8">
         <v>300</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="8">
         <v>73</v>
       </c>
-      <c r="H25" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H26" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I26" s="8">
         <v>1</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J26" s="8">
         <v>0.05</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="8">
         <v>0.91</v>
       </c>
-      <c r="L25" s="2">
-        <v>50</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="L26" s="8">
+        <v>50</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
         <v>67.5</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="2" t="s">
+      <c r="O26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:25">
+      <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="8">
         <v>250</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="8">
         <v>450</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="8">
         <v>300</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="8">
         <v>73</v>
       </c>
-      <c r="H26" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H27" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I27" s="8">
         <v>1</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J27" s="8">
         <v>0.05</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="8">
         <v>0.91</v>
       </c>
-      <c r="L26" s="2">
-        <v>50</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="L27" s="8">
+        <v>50</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
         <v>67.5</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="2" t="s">
+      <c r="O27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:25">
+      <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="8">
         <v>250</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="8">
         <v>500</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="8">
         <v>300</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="8">
         <v>73</v>
       </c>
-      <c r="H27" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="H28" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I28" s="8">
         <v>1</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J28" s="8">
         <v>0.05</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="8">
         <v>0.91</v>
       </c>
-      <c r="L27" s="2">
-        <v>50</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="L28" s="8">
+        <v>50</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
         <v>75</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="2" t="s">
+      <c r="O28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:25">
+      <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="8">
         <v>250</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="8">
         <v>550</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="8">
         <v>300</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="8">
         <v>73</v>
       </c>
-      <c r="H28" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="H29" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I29" s="8">
         <v>1</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J29" s="8">
         <v>0.05</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="8">
         <v>0.91</v>
       </c>
-      <c r="L28" s="2">
-        <v>50</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="L29" s="8">
+        <v>50</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
         <v>67.5</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="2" t="s">
+      <c r="O29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:25">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="8">
         <v>250</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="8">
         <v>600</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="8">
         <v>300</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="8">
         <v>73</v>
       </c>
-      <c r="H29" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H30" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I30" s="8">
         <v>1</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J30" s="8">
         <v>0.05</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K30" s="8">
         <v>0.91</v>
       </c>
-      <c r="L29" s="2">
-        <v>50</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="L30" s="8">
+        <v>50</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
         <v>67.5</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="2" t="s">
+      <c r="O30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:25">
+      <c r="A31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="8">
         <v>250</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="8">
         <v>1000</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="8">
         <v>300</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="8">
         <v>73</v>
       </c>
-      <c r="H30" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H31" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I31" s="8">
         <v>1</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="8">
         <v>0.05</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="8">
         <v>0.91</v>
       </c>
-      <c r="L30" s="2">
-        <v>50</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="L31" s="8">
+        <v>50</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
         <v>75</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P30" s="2" t="s">
+      <c r="O31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:25" s="11" customFormat="1">
+      <c r="A32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="11">
+        <v>100</v>
+      </c>
+      <c r="E32" s="11">
+        <v>100</v>
+      </c>
+      <c r="F32" s="11">
+        <v>300</v>
+      </c>
+      <c r="G32" s="11">
+        <v>40</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="L32" s="11">
+        <v>100</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>50</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="11" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="11">
         <v>300</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="11">
         <v>1500</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F33" s="11">
         <v>150</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G33" s="11">
         <v>5</v>
       </c>
-      <c r="H31" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="H33" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I33" s="11">
         <v>1</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J33" s="11">
         <v>0.05</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K33" s="11">
         <v>0.91</v>
       </c>
-      <c r="L31" s="2">
-        <v>50</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="L33" s="11">
+        <v>50</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
         <v>37.5</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="2" t="s">
+      <c r="O33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q33" s="11">
         <v>0.32926800000000001</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R33" s="11">
         <v>5.8822999999999999</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S33" s="11">
         <v>5.7511340000000004</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T33" s="11">
         <v>5.3957240000000004</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U33" s="11">
         <v>0.31009503308842501</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V33" s="11">
         <v>5.7907683503593796</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W33" s="11">
         <v>5.6656691506201096</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X33" s="11">
         <v>5.35313828972133</v>
       </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" ht="15">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="34" spans="1:28" s="11" customFormat="1">
+      <c r="A34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="11">
         <v>300</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="11">
         <v>1500</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F34" s="11">
         <v>200</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G34" s="11">
         <v>5</v>
       </c>
-      <c r="H32" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="H34" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I34" s="11">
         <v>1</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J34" s="11">
         <v>0.05</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K34" s="11">
         <v>0.91</v>
       </c>
-      <c r="L32" s="2">
-        <v>50</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>50</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="2" t="s">
+      <c r="L34" s="11">
+        <v>50</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>50</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q34" s="11">
         <v>0.75167600000000001</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R34" s="11">
         <v>7.8483010000000002</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S34" s="11">
         <v>7.6242330000000003</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T34" s="11">
         <v>7.2113100000000001</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U34" s="11">
         <v>0.69518119667081901</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V34" s="11">
         <v>7.7269948552311698</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W34" s="11">
         <v>7.51758250343185</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X34" s="11">
         <v>7.1690879268755898</v>
       </c>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28" ht="15">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="35" spans="1:28" ht="15">
+      <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="11">
         <v>200</v>
       </c>
-      <c r="E33" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F33" s="2">
-        <v>125</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="E35" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="11">
+        <v>40</v>
+      </c>
+      <c r="G35" s="11">
+        <v>45</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="L35" s="11">
+        <v>200</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
         <v>10</v>
       </c>
-      <c r="H33" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K33" s="2">
-        <f>0.91*1</f>
-        <v>0.91</v>
-      </c>
-      <c r="L33" s="2">
-        <v>200</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>31.3</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28" ht="15">
-      <c r="A34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="2">
-        <v>300</v>
-      </c>
-      <c r="E34" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F34" s="2">
-        <v>50</v>
-      </c>
-      <c r="G34" s="2">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L34" s="2">
-        <v>200</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>10</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="1:28" ht="15">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2">
-        <v>300</v>
-      </c>
-      <c r="E35" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F35" s="2">
-        <v>40</v>
-      </c>
-      <c r="G35" s="2">
-        <v>66</v>
-      </c>
-      <c r="H35" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L35" s="2">
-        <v>200</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>10</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>81</v>
+      <c r="O35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -2618,53 +2803,53 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" ht="15">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="2">
-        <v>300</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="B36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="11">
+        <v>200</v>
+      </c>
+      <c r="E36" s="11">
         <v>6000</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="11">
         <v>40</v>
       </c>
-      <c r="G36" s="2">
-        <v>63</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="G36" s="11">
+        <v>67</v>
+      </c>
+      <c r="H36" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I36" s="11">
         <v>1</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="11">
         <v>0.1</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="11">
         <v>0.9</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="11">
         <v>200</v>
       </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
         <v>10</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>81</v>
+      <c r="O36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -2672,52 +2857,53 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" ht="15">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="2">
-        <v>300</v>
-      </c>
-      <c r="E37" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F37" s="2">
-        <v>40</v>
-      </c>
-      <c r="G37" s="2">
-        <v>38</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="B37" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="11">
+        <v>200</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F37" s="11">
+        <v>125</v>
+      </c>
+      <c r="G37" s="11">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I37" s="11">
         <v>1</v>
       </c>
-      <c r="J37" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="J37" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="K37" s="11">
+        <f>0.91*1</f>
+        <v>0.91</v>
+      </c>
+      <c r="L37" s="11">
         <v>200</v>
       </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>10</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="2" t="s">
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="11" t="s">
         <v>81</v>
       </c>
       <c r="Y37" s="1"/>
@@ -2726,52 +2912,52 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" ht="15">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="11">
         <v>300</v>
       </c>
-      <c r="E38" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F38" s="2">
-        <v>40</v>
-      </c>
-      <c r="G38" s="2">
-        <v>25</v>
-      </c>
-      <c r="H38" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="E38" s="11">
+        <v>7000</v>
+      </c>
+      <c r="F38" s="11">
+        <v>50</v>
+      </c>
+      <c r="G38" s="11">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I38" s="11">
         <v>1</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="11">
         <v>0.1</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="11">
         <v>0.9</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="11">
         <v>200</v>
       </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
         <v>10</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" s="2" t="s">
+      <c r="O38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="11" t="s">
         <v>81</v>
       </c>
       <c r="Y38" s="1"/>
@@ -2780,52 +2966,52 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" ht="15">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="11">
         <v>300</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="11">
         <v>6000</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="11">
         <v>40</v>
       </c>
-      <c r="G39" s="2">
-        <v>12</v>
-      </c>
-      <c r="H39" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="G39" s="11">
+        <v>66</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I39" s="11">
         <v>1</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="11">
         <v>0.1</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="11">
         <v>0.9</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="11">
         <v>200</v>
       </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
         <v>10</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="2" t="s">
+      <c r="O39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="11" t="s">
         <v>81</v>
       </c>
       <c r="Y39" s="1"/>
@@ -2834,52 +3020,52 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" ht="15">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="11">
         <v>300</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="11">
         <v>6000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="11">
         <v>40</v>
       </c>
-      <c r="G40" s="2">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="G40" s="11">
+        <v>63</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I40" s="11">
         <v>1</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="11">
         <v>0.1</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="11">
         <v>0.9</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="11">
         <v>200</v>
       </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
         <v>10</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P40" s="2" t="s">
+      <c r="O40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" s="11" t="s">
         <v>81</v>
       </c>
       <c r="Y40" s="1"/>
@@ -2888,77 +3074,53 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" ht="15">
-      <c r="A41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="A41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="11">
         <v>300</v>
       </c>
-      <c r="E41" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F41" s="2">
-        <v>150</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="E41" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F41" s="11">
+        <v>40</v>
+      </c>
+      <c r="G41" s="11">
+        <v>38</v>
+      </c>
+      <c r="H41" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I41" s="11">
         <v>1</v>
       </c>
-      <c r="J41" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="L41" s="2">
-        <v>50</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0.69364000000000003</v>
-      </c>
-      <c r="R41" s="3">
-        <v>5.8062690000000003</v>
-      </c>
-      <c r="S41" s="3">
-        <v>5.5236720000000004</v>
-      </c>
-      <c r="T41" s="3">
-        <v>5.2942289999999996</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0.76099041541326395</v>
-      </c>
-      <c r="V41" s="3">
-        <v>5.8699981936216297</v>
-      </c>
-      <c r="W41" s="3">
-        <v>5.56921886208481</v>
-      </c>
-      <c r="X41" s="3">
-        <v>5.4638577165093603</v>
+      <c r="J41" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="L41" s="11">
+        <v>200</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>10</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -2966,77 +3128,53 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" ht="15">
-      <c r="A42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="A42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="11">
         <v>300</v>
       </c>
-      <c r="E42" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F42" s="11">
+        <v>40</v>
+      </c>
+      <c r="G42" s="11">
+        <v>25</v>
+      </c>
+      <c r="H42" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="L42" s="11">
         <v>200</v>
       </c>
-      <c r="G42" s="2">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="L42" s="2">
-        <v>50</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>50</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1.243671</v>
-      </c>
-      <c r="R42" s="3">
-        <v>7.7440819999999997</v>
-      </c>
-      <c r="S42" s="3">
-        <v>7.364554</v>
-      </c>
-      <c r="T42" s="3">
-        <v>7.0506279999999997</v>
-      </c>
-      <c r="U42" s="3">
-        <v>1.13064213727628</v>
-      </c>
-      <c r="V42" s="3">
-        <v>7.7568453051029804</v>
-      </c>
-      <c r="W42" s="3">
-        <v>7.41349024884199</v>
-      </c>
-      <c r="X42" s="3">
-        <v>7.1113147969694204</v>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>10</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -3044,53 +3182,53 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" ht="15">
-      <c r="A43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="11">
+        <v>300</v>
+      </c>
+      <c r="E43" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F43" s="11">
+        <v>40</v>
+      </c>
+      <c r="G43" s="11">
+        <v>12</v>
+      </c>
+      <c r="H43" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="L43" s="11">
         <v>200</v>
       </c>
-      <c r="E43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F43" s="2">
-        <v>40</v>
-      </c>
-      <c r="G43" s="2">
-        <v>21</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L43" s="2">
-        <v>200</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
         <v>10</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>23</v>
+      <c r="O43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -3098,53 +3236,53 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" ht="15">
-      <c r="A44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="11">
+        <v>300</v>
+      </c>
+      <c r="E44" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F44" s="11">
+        <v>40</v>
+      </c>
+      <c r="G44" s="11">
+        <v>6</v>
+      </c>
+      <c r="H44" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="L44" s="11">
         <v>200</v>
       </c>
-      <c r="E44" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F44" s="2">
-        <v>40</v>
-      </c>
-      <c r="G44" s="2">
-        <v>13</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L44" s="2">
-        <v>200</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
         <v>10</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>23</v>
+      <c r="O44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -3152,58 +3290,422 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="15">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="2">
-        <v>200</v>
-      </c>
-      <c r="E45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F45" s="2">
-        <v>40</v>
-      </c>
-      <c r="G45" s="2">
-        <v>67</v>
-      </c>
-      <c r="H45" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="B45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="5">
+        <v>300</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="5">
+        <v>150</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I45" s="5">
         <v>1</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="5">
         <v>0.1</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="5">
         <v>0.9</v>
       </c>
-      <c r="L45" s="2">
-        <v>200</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>10</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" s="2" t="s">
+      <c r="L45" s="5">
+        <v>100</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.69364000000000003</v>
+      </c>
+      <c r="R45" s="3">
+        <v>5.8062690000000003</v>
+      </c>
+      <c r="S45" s="3">
+        <v>5.5236720000000004</v>
+      </c>
+      <c r="T45" s="3">
+        <v>5.2942289999999996</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.76099041541326395</v>
+      </c>
+      <c r="V45" s="3">
+        <v>5.8699981936216297</v>
+      </c>
+      <c r="W45" s="3">
+        <v>5.56921886208481</v>
+      </c>
+      <c r="X45" s="3">
+        <v>5.4638577165093603</v>
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="1:28" ht="15">
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="5">
+        <v>300</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="5">
+        <v>200</v>
+      </c>
+      <c r="G46" s="5">
+        <v>5</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L46" s="5">
+        <v>100</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>50</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1.243671</v>
+      </c>
+      <c r="R46" s="3">
+        <v>7.7440819999999997</v>
+      </c>
+      <c r="S46" s="3">
+        <v>7.364554</v>
+      </c>
+      <c r="T46" s="3">
+        <v>7.0506279999999997</v>
+      </c>
+      <c r="U46" s="3">
+        <v>1.13064213727628</v>
+      </c>
+      <c r="V46" s="3">
+        <v>7.7568453051029804</v>
+      </c>
+      <c r="W46" s="3">
+        <v>7.41349024884199</v>
+      </c>
+      <c r="X46" s="3">
+        <v>7.1113147969694204</v>
+      </c>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="1:28" ht="15">
+      <c r="A47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="5">
+        <v>200</v>
+      </c>
+      <c r="E47" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>40</v>
+      </c>
+      <c r="G47" s="5">
+        <v>13</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L47" s="5">
+        <v>200</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>10</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="1:28" ht="15">
+      <c r="A48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="5">
+        <v>200</v>
+      </c>
+      <c r="E48" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>40</v>
+      </c>
+      <c r="G48" s="5">
+        <v>21</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L48" s="5">
+        <v>200</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>10</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="1:28" ht="15">
+      <c r="A49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="5">
+        <v>200</v>
+      </c>
+      <c r="E49" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>40</v>
+      </c>
+      <c r="G49" s="5">
+        <v>67</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L49" s="5">
+        <v>200</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>10</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="5">
+        <v>200</v>
+      </c>
+      <c r="E50" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F50" s="5">
+        <v>40</v>
+      </c>
+      <c r="G50" s="5">
+        <v>38</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L50" s="5">
+        <v>200</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>10</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="5">
+        <v>200</v>
+      </c>
+      <c r="E51" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F51" s="5">
+        <v>40</v>
+      </c>
+      <c r="G51" s="5">
+        <v>67</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L51" s="5">
+        <v>200</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>10</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>

--- a/matlab/waveform/waveform.xlsx
+++ b/matlab/waveform/waveform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="-60" windowWidth="20175" windowHeight="10245" tabRatio="500"/>
+    <workbookView xWindow="6990" yWindow="15" windowWidth="15990" windowHeight="10245" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
   <si>
     <t>folder</t>
   </si>
@@ -327,13 +327,25 @@
   </si>
   <si>
     <t>6000ns-40v-66kHz-w-lpf.csv</t>
+  </si>
+  <si>
+    <t>051517</t>
+  </si>
+  <si>
+    <t>ipb3-43</t>
+  </si>
+  <si>
+    <t>he-6000ns-40v-26kHz.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-40v.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,6 +361,18 @@
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -409,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,6 +452,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB51"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2555,22 +2584,22 @@
         <v>54</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D32" s="11">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E32" s="11">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="11">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G32" s="11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H32" s="11">
         <v>2.0299999999999998</v>
@@ -2585,19 +2614,43 @@
         <v>0.91</v>
       </c>
       <c r="L32" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M32" s="11">
         <v>0</v>
       </c>
       <c r="N32" s="11">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0.32926800000000001</v>
+      </c>
+      <c r="R32" s="11">
+        <v>5.8822999999999999</v>
+      </c>
+      <c r="S32" s="11">
+        <v>5.7511340000000004</v>
+      </c>
+      <c r="T32" s="11">
+        <v>5.3957240000000004</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0.31009503308842501</v>
+      </c>
+      <c r="V32" s="11">
+        <v>5.7907683503593796</v>
+      </c>
+      <c r="W32" s="11">
+        <v>5.6656691506201096</v>
+      </c>
+      <c r="X32" s="11">
+        <v>5.35313828972133</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="11" customFormat="1">
@@ -2605,22 +2658,22 @@
         <v>54</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D33" s="11">
+        <v>100</v>
+      </c>
+      <c r="E33" s="11">
+        <v>100</v>
+      </c>
+      <c r="F33" s="11">
         <v>300</v>
       </c>
-      <c r="E33" s="11">
-        <v>1500</v>
-      </c>
-      <c r="F33" s="11">
-        <v>150</v>
-      </c>
       <c r="G33" s="11">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H33" s="11">
         <v>2.0299999999999998</v>
@@ -2635,43 +2688,19 @@
         <v>0.91</v>
       </c>
       <c r="L33" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M33" s="11">
         <v>0</v>
       </c>
       <c r="N33" s="11">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="O33" s="11" t="s">
         <v>22</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>0.32926800000000001</v>
-      </c>
-      <c r="R33" s="11">
-        <v>5.8822999999999999</v>
-      </c>
-      <c r="S33" s="11">
-        <v>5.7511340000000004</v>
-      </c>
-      <c r="T33" s="11">
-        <v>5.3957240000000004</v>
-      </c>
-      <c r="U33" s="11">
-        <v>0.31009503308842501</v>
-      </c>
-      <c r="V33" s="11">
-        <v>5.7907683503593796</v>
-      </c>
-      <c r="W33" s="11">
-        <v>5.6656691506201096</v>
-      </c>
-      <c r="X33" s="11">
-        <v>5.35313828972133</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="11" customFormat="1">
@@ -2911,59 +2940,67 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="15">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:28" s="22" customFormat="1" ht="15">
+      <c r="A38" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="18">
         <v>300</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="18">
         <v>7000</v>
       </c>
-      <c r="F38" s="11">
-        <v>50</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="F38" s="18">
+        <v>50</v>
+      </c>
+      <c r="G38" s="18">
+        <v>30</v>
+      </c>
+      <c r="H38" s="18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="L38" s="18">
+        <v>250</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
         <v>10</v>
       </c>
-      <c r="H38" s="11">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="L38" s="11">
-        <v>200</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <v>10</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" s="11" t="s">
+      <c r="O38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
     </row>
     <row r="39" spans="1:28" ht="15">
       <c r="A39" s="11" t="s">
@@ -3290,104 +3327,80 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="15">
-      <c r="A45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="5">
-        <v>300</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1500</v>
-      </c>
-      <c r="F45" s="5">
-        <v>150</v>
-      </c>
-      <c r="G45" s="5">
-        <v>5</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="A45" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="11">
+        <v>200</v>
+      </c>
+      <c r="E45" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="11">
+        <v>26</v>
+      </c>
+      <c r="G45" s="11">
+        <v>6</v>
+      </c>
+      <c r="H45" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I45" s="11">
         <v>1</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="11">
         <v>0.1</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="11">
         <v>0.9</v>
       </c>
-      <c r="L45" s="5">
-        <v>100</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>37.5</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" s="5" t="s">
+      <c r="L45" s="11">
+        <v>200</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>10</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0.69364000000000003</v>
-      </c>
-      <c r="R45" s="3">
-        <v>5.8062690000000003</v>
-      </c>
-      <c r="S45" s="3">
-        <v>5.5236720000000004</v>
-      </c>
-      <c r="T45" s="3">
-        <v>5.2942289999999996</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0.76099041541326395</v>
-      </c>
-      <c r="V45" s="3">
-        <v>5.8699981936216297</v>
-      </c>
-      <c r="W45" s="3">
-        <v>5.56921886208481</v>
-      </c>
-      <c r="X45" s="3">
-        <v>5.4638577165093603</v>
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="15">
+    <row r="46" spans="1:28">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D46" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="5">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="F46" s="5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G46" s="5">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H46" s="5">
         <v>2.0299999999999998</v>
@@ -3402,50 +3415,22 @@
         <v>0.9</v>
       </c>
       <c r="L46" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
       <c r="N46" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1.243671</v>
-      </c>
-      <c r="R46" s="3">
-        <v>7.7440819999999997</v>
-      </c>
-      <c r="S46" s="3">
-        <v>7.364554</v>
-      </c>
-      <c r="T46" s="3">
-        <v>7.0506279999999997</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1.13064213727628</v>
-      </c>
-      <c r="V46" s="3">
-        <v>7.7568453051029804</v>
-      </c>
-      <c r="W46" s="3">
-        <v>7.41349024884199</v>
-      </c>
-      <c r="X46" s="3">
-        <v>7.1113147969694204</v>
-      </c>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" ht="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="5" t="s">
         <v>76</v>
       </c>
@@ -3453,7 +3438,7 @@
         <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D47" s="5">
         <v>200</v>
@@ -3465,7 +3450,7 @@
         <v>40</v>
       </c>
       <c r="G47" s="5">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H47" s="5">
         <v>2.0299999999999998</v>
@@ -3492,34 +3477,30 @@
         <v>22</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:28" ht="15">
       <c r="A48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D48" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="5">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="5">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G48" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H48" s="5">
         <v>2.0299999999999998</v>
@@ -3534,19 +3515,43 @@
         <v>0.9</v>
       </c>
       <c r="L48" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
       <c r="N48" s="5">
-        <v>10</v>
+        <v>37.5</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0.69364000000000003</v>
+      </c>
+      <c r="R48" s="3">
+        <v>5.8062690000000003</v>
+      </c>
+      <c r="S48" s="3">
+        <v>5.5236720000000004</v>
+      </c>
+      <c r="T48" s="3">
+        <v>5.2942289999999996</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0.76099041541326395</v>
+      </c>
+      <c r="V48" s="3">
+        <v>5.8699981936216297</v>
+      </c>
+      <c r="W48" s="3">
+        <v>5.56921886208481</v>
+      </c>
+      <c r="X48" s="3">
+        <v>5.4638577165093603</v>
       </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -3558,22 +3563,22 @@
         <v>76</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D49" s="5">
+        <v>300</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="5">
         <v>200</v>
       </c>
-      <c r="E49" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F49" s="5">
-        <v>40</v>
-      </c>
       <c r="G49" s="5">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="H49" s="5">
         <v>2.0299999999999998</v>
@@ -3588,34 +3593,58 @@
         <v>0.9</v>
       </c>
       <c r="L49" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="5">
         <v>0</v>
       </c>
       <c r="N49" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1.243671</v>
+      </c>
+      <c r="R49" s="3">
+        <v>7.7440819999999997</v>
+      </c>
+      <c r="S49" s="3">
+        <v>7.364554</v>
+      </c>
+      <c r="T49" s="3">
+        <v>7.0506279999999997</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1.13064213727628</v>
+      </c>
+      <c r="V49" s="3">
+        <v>7.7568453051029804</v>
+      </c>
+      <c r="W49" s="3">
+        <v>7.41349024884199</v>
+      </c>
+      <c r="X49" s="3">
+        <v>7.1113147969694204</v>
       </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" ht="15">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D50" s="5">
         <v>200</v>
@@ -3627,7 +3656,7 @@
         <v>40</v>
       </c>
       <c r="G50" s="5">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H50" s="5">
         <v>2.0299999999999998</v>
@@ -3654,10 +3683,14 @@
         <v>22</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>23</v>
+      </c>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="1:28" ht="15">
       <c r="A51" s="5" t="s">
         <v>76</v>
       </c>
@@ -3665,7 +3698,7 @@
         <v>83</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D51" s="5">
         <v>200</v>
@@ -3677,7 +3710,7 @@
         <v>40</v>
       </c>
       <c r="G51" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H51" s="5">
         <v>2.0299999999999998</v>
@@ -3704,8 +3737,120 @@
         <v>22</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" ht="15">
+      <c r="A52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5">
+        <v>200</v>
+      </c>
+      <c r="E52" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F52" s="5">
+        <v>40</v>
+      </c>
+      <c r="G52" s="5">
+        <v>67</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L52" s="5">
+        <v>200</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>10</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" ht="15">
+      <c r="A53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="5">
+        <v>200</v>
+      </c>
+      <c r="E53" s="5">
+        <v>100</v>
+      </c>
+      <c r="F53" s="5">
+        <v>300</v>
+      </c>
+      <c r="G53" s="5">
+        <v>40</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L53" s="5">
+        <v>100</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>10</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>

--- a/matlab/waveform/waveform.xlsx
+++ b/matlab/waveform/waveform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="-180" windowWidth="21945" windowHeight="10245" tabRatio="500"/>
+    <workbookView xWindow="2250" yWindow="-315" windowWidth="20385" windowHeight="10245" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="170">
   <si>
     <t>folder</t>
   </si>
@@ -326,9 +326,6 @@
     <t>he-6000ns-40v-26kHz.csv</t>
   </si>
   <si>
-    <t>230v-100ns-41b-He.csv</t>
-  </si>
-  <si>
     <t>40v-6000ns-25kHz.csv</t>
   </si>
   <si>
@@ -351,6 +348,189 @@
   </si>
   <si>
     <t>100ns-300v-40kHz2.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-40kHz-8.csv</t>
+  </si>
+  <si>
+    <t>051917</t>
+  </si>
+  <si>
+    <t>100ns-300v-58kHz-4-60c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-58kHz-8-60c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-58kHz-4-275c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-58kHz-8-275c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-dn-600c.csv</t>
+  </si>
+  <si>
+    <t>230v-100ns-73kHz-He.csv</t>
+  </si>
+  <si>
+    <t>052517</t>
+  </si>
+  <si>
+    <t>300v-100ns-67kHz.csv</t>
+  </si>
+  <si>
+    <t>060617</t>
+  </si>
+  <si>
+    <t>300ns-300v-dualNarrow.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-60kHz-150c.csv</t>
+  </si>
+  <si>
+    <t>061417</t>
+  </si>
+  <si>
+    <t>ipb41-44</t>
+  </si>
+  <si>
+    <t>6000ns-40v-275c-68kHz.csv</t>
+  </si>
+  <si>
+    <t>062017</t>
+  </si>
+  <si>
+    <t>100ns-300v.csv</t>
+  </si>
+  <si>
+    <t>062917</t>
+  </si>
+  <si>
+    <t>sri-ipb1-48</t>
+  </si>
+  <si>
+    <t>6000ns-40v.csv</t>
+  </si>
+  <si>
+    <t>100ns-200v.csv</t>
+  </si>
+  <si>
+    <t>070317</t>
+  </si>
+  <si>
+    <t>100ns-300v-68kHz-275c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-275c.csv</t>
+  </si>
+  <si>
+    <t>070517</t>
+  </si>
+  <si>
+    <t>100ns-300v-250c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-250c-1.csv</t>
+  </si>
+  <si>
+    <t>070617</t>
+  </si>
+  <si>
+    <t>100ns-300v-210c.csv</t>
+  </si>
+  <si>
+    <t>150ns-200v-210c.csv</t>
+  </si>
+  <si>
+    <t>6us-40v-210c.csv</t>
+  </si>
+  <si>
+    <t>10us-30v-210c.csv</t>
+  </si>
+  <si>
+    <t>ipb41-50</t>
+  </si>
+  <si>
+    <t>071317</t>
+  </si>
+  <si>
+    <t>6us-40v-200c.csv</t>
+  </si>
+  <si>
+    <t>300ns-200v-200c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-200c.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>071417</t>
+  </si>
+  <si>
+    <t>100ns-300v-188c-60kHz.csv</t>
+  </si>
+  <si>
+    <t>071917</t>
+  </si>
+  <si>
+    <t>10us-35v-100c-40kHz.csv</t>
+  </si>
+  <si>
+    <t>072117</t>
+  </si>
+  <si>
+    <t>10us-35v-nocore.csv</t>
+  </si>
+  <si>
+    <t>10us-40v-200c.csv</t>
+  </si>
+  <si>
+    <t>100ns-325v-nocore.csv</t>
+  </si>
+  <si>
+    <t>072417</t>
+  </si>
+  <si>
+    <t>10us-35v-200c.csv</t>
+  </si>
+  <si>
+    <t>100ns-325v-200c.csv</t>
+  </si>
+  <si>
+    <t>100ns-325v-200c-filter.csv</t>
+  </si>
+  <si>
+    <t>10us-35v-200c-filter.csv</t>
+  </si>
+  <si>
+    <t>072517</t>
+  </si>
+  <si>
+    <t>100ns-325v_80c.csv</t>
+  </si>
+  <si>
+    <t>10us-35v-80c.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb1-45</t>
+  </si>
+  <si>
+    <t>10us-35v-300c.csv</t>
+  </si>
+  <si>
+    <t>100ns-325v-300c.csv</t>
+  </si>
+  <si>
+    <t>072617</t>
+  </si>
+  <si>
+    <t>100ns-325v-337c.csv</t>
+  </si>
+  <si>
+    <t>10us-35c-337c.csv</t>
   </si>
 </sst>
 </file>
@@ -394,7 +574,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +617,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,6 +676,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,6 +775,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -847,26 +1070,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5703125" style="2"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2"/>
     <col min="8" max="8" width="5.140625" style="2"/>
     <col min="9" max="9" width="5.7109375" style="2"/>
     <col min="10" max="10" width="6.85546875" style="2"/>
-    <col min="11" max="11" width="5" style="2"/>
+    <col min="11" max="11" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="11.7109375" style="2"/>
+    <col min="13" max="13" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.5703125" style="2"/>
     <col min="16" max="16" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="3" bestFit="1" customWidth="1"/>
@@ -875,7 +1101,7 @@
     <col min="22" max="24" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="1025" width="8.85546875" style="2"/>
+    <col min="29" max="1025" width="8.85546875" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -890,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -914,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1086,7 +1312,7 @@
         <v>0.97</v>
       </c>
       <c r="K4" s="20">
-        <v>100</v>
+        <v>24999.999999999996</v>
       </c>
       <c r="L4" s="20">
         <v>16.5</v>
@@ -1146,7 +1372,7 @@
         <v>0.97</v>
       </c>
       <c r="K5" s="20">
-        <v>100</v>
+        <v>24999.999999999996</v>
       </c>
       <c r="L5" s="20">
         <v>16.5</v>
@@ -1181,7 +1407,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="22">
         <v>300</v>
@@ -1245,10 +1471,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="22">
         <v>200</v>
@@ -1300,52 +1526,52 @@
       <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" s="22" customFormat="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="22">
+      <c r="C8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="34">
         <v>200</v>
       </c>
-      <c r="E8" s="22">
-        <v>100</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="E8" s="34">
+        <v>100</v>
+      </c>
+      <c r="F8" s="34">
         <v>300</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="34">
         <v>33</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="34">
         <v>1.56</v>
       </c>
-      <c r="I8" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="I8" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="34">
         <v>0.9</v>
       </c>
-      <c r="K8" s="22">
-        <v>100</v>
-      </c>
-      <c r="L8" s="22">
-        <v>16.5</v>
-      </c>
-      <c r="M8" s="22">
+      <c r="K8" s="34">
+        <v>100</v>
+      </c>
+      <c r="L8" s="34">
+        <v>16.5</v>
+      </c>
+      <c r="M8" s="34">
         <v>1</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="34">
         <v>75</v>
       </c>
-      <c r="O8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="22" t="s">
+      <c r="O8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="34" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="23"/>
@@ -1383,14 +1609,14 @@
       <c r="H9" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I9" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K9" s="14">
-        <v>50</v>
+      <c r="I9" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="22">
+        <v>100</v>
       </c>
       <c r="L9" s="14">
         <v>16.5</v>
@@ -1442,13 +1668,13 @@
       <c r="H10" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I10" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="I10" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="22">
         <v>50</v>
       </c>
       <c r="L10" s="14">
@@ -1501,13 +1727,13 @@
       <c r="H11" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I11" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="I11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="22">
         <v>50</v>
       </c>
       <c r="L11" s="14">
@@ -1560,13 +1786,13 @@
       <c r="H12" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I12" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="I12" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="22">
         <v>50</v>
       </c>
       <c r="L12" s="14">
@@ -1619,13 +1845,13 @@
       <c r="H13" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I13" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K13" s="14">
+      <c r="I13" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="22">
         <v>50</v>
       </c>
       <c r="L13" s="14">
@@ -1679,14 +1905,14 @@
       <c r="H14" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I14" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K14" s="14">
-        <v>100</v>
+      <c r="I14" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K14" s="22">
+        <v>50</v>
       </c>
       <c r="L14" s="14">
         <v>16.5</v>
@@ -1714,53 +1940,53 @@
       <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="27">
         <v>350</v>
       </c>
-      <c r="E15" s="14">
-        <v>100</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="27">
+        <v>100</v>
+      </c>
+      <c r="F15" s="27">
         <f>37.5*8</f>
         <v>300</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="27">
         <v>89</v>
       </c>
-      <c r="H15" s="14">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="K15" s="14">
-        <v>100</v>
-      </c>
-      <c r="L15" s="14">
-        <v>16.5</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="H15" s="27">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="27">
+        <v>50</v>
+      </c>
+      <c r="L15" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="M15" s="27">
         <v>2</v>
       </c>
-      <c r="N15" s="14">
-        <v>50</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="14" t="s">
+      <c r="N15" s="27">
+        <v>50</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="27" t="s">
         <v>41</v>
       </c>
       <c r="Q15" s="15"/>
@@ -1774,52 +2000,52 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="27">
         <v>25</v>
       </c>
-      <c r="E16" s="14">
-        <v>100</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="27">
+        <v>100</v>
+      </c>
+      <c r="F16" s="27">
         <v>350</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="27">
         <v>47</v>
       </c>
-      <c r="H16" s="14">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="K16" s="14">
-        <v>40</v>
-      </c>
-      <c r="L16" s="14">
-        <v>16.5</v>
-      </c>
-      <c r="M16" s="14">
+      <c r="H16" s="27">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="K16" s="27">
+        <v>50</v>
+      </c>
+      <c r="L16" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="M16" s="27">
         <v>2</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="27">
         <v>75</v>
       </c>
-      <c r="O16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="14" t="s">
+      <c r="O16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="27" t="s">
         <v>41</v>
       </c>
       <c r="Q16" s="15"/>
@@ -1833,52 +2059,52 @@
       <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25" s="14" customFormat="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="27">
         <v>275</v>
       </c>
-      <c r="E17" s="14">
-        <v>100</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="E17" s="27">
+        <v>100</v>
+      </c>
+      <c r="F17" s="27">
         <v>200</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="27">
         <v>45</v>
       </c>
-      <c r="H17" s="14">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="K17" s="14">
-        <v>50</v>
-      </c>
-      <c r="L17" s="14">
-        <v>16.5</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="H17" s="27">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="27">
+        <v>50</v>
+      </c>
+      <c r="L17" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="M17" s="27">
         <v>2</v>
       </c>
-      <c r="N17" s="14">
-        <v>50</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="14" t="s">
+      <c r="N17" s="27">
+        <v>50</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="Q17" s="15"/>
@@ -2008,7 +2234,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D20" s="12">
         <v>300</v>
@@ -2075,7 +2301,7 @@
         <v>98</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="12">
         <v>200</v>
@@ -2134,7 +2360,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="12">
         <v>200</v>
@@ -2164,7 +2390,7 @@
         <v>16.5</v>
       </c>
       <c r="M22" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="12">
         <v>75</v>
@@ -2185,1383 +2411,1402 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:25" s="28" customFormat="1">
+      <c r="A23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="32">
+        <v>250</v>
+      </c>
+      <c r="E23" s="32">
+        <v>100</v>
+      </c>
+      <c r="F23" s="32">
+        <v>300</v>
+      </c>
+      <c r="G23" s="32">
+        <v>67</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1.56</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="K23" s="32">
+        <v>100</v>
+      </c>
+      <c r="L23" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M23" s="32">
+        <v>2</v>
+      </c>
+      <c r="N23" s="32">
+        <v>75</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+    </row>
+    <row r="24" spans="1:25" s="28" customFormat="1">
+      <c r="A24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="32">
+        <v>50</v>
+      </c>
+      <c r="E24" s="32">
+        <v>100</v>
+      </c>
+      <c r="F24" s="32">
+        <v>300</v>
+      </c>
+      <c r="G24" s="32">
+        <v>40</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K24" s="32">
+        <v>100</v>
+      </c>
+      <c r="L24" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M24" s="32">
+        <v>2</v>
+      </c>
+      <c r="N24" s="32">
+        <v>75</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+    </row>
+    <row r="25" spans="1:25" s="28" customFormat="1">
+      <c r="A25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="32">
+        <v>50</v>
+      </c>
+      <c r="E25" s="32">
+        <v>6000</v>
+      </c>
+      <c r="F25" s="32">
+        <v>40</v>
+      </c>
+      <c r="G25" s="32">
+        <v>40</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K25" s="32">
+        <v>100</v>
+      </c>
+      <c r="L25" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M25" s="32">
+        <v>2</v>
+      </c>
+      <c r="N25" s="32">
+        <v>10</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+    </row>
+    <row r="26" spans="1:25" s="28" customFormat="1">
+      <c r="A26" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="32">
+        <v>50</v>
+      </c>
+      <c r="E26" s="32">
+        <v>100</v>
+      </c>
+      <c r="F26" s="32">
+        <v>300</v>
+      </c>
+      <c r="G26" s="32">
+        <v>40</v>
+      </c>
+      <c r="H26" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K26" s="32">
+        <v>100</v>
+      </c>
+      <c r="L26" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M26" s="32">
+        <v>2</v>
+      </c>
+      <c r="N26" s="32">
+        <v>75</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+    </row>
+    <row r="27" spans="1:25" s="28" customFormat="1">
+      <c r="A27" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="32">
+        <v>50</v>
+      </c>
+      <c r="E27" s="32">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="32">
+        <v>40</v>
+      </c>
+      <c r="G27" s="32">
+        <v>40</v>
+      </c>
+      <c r="H27" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K27" s="32">
+        <v>100</v>
+      </c>
+      <c r="L27" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M27" s="32">
+        <v>2</v>
+      </c>
+      <c r="N27" s="32">
+        <v>10</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+    </row>
+    <row r="28" spans="1:25" s="28" customFormat="1">
+      <c r="A28" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="32">
+        <v>50</v>
+      </c>
+      <c r="E28" s="32">
+        <v>100</v>
+      </c>
+      <c r="F28" s="32">
+        <v>200</v>
+      </c>
+      <c r="G28" s="32">
+        <v>40</v>
+      </c>
+      <c r="H28" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K28" s="32">
+        <v>100</v>
+      </c>
+      <c r="L28" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M28" s="32">
+        <v>2</v>
+      </c>
+      <c r="N28" s="32">
+        <v>50</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+    </row>
+    <row r="29" spans="1:25" s="28" customFormat="1">
+      <c r="A29" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="32">
+        <v>50</v>
+      </c>
+      <c r="E29" s="32">
+        <v>100</v>
+      </c>
+      <c r="F29" s="32">
+        <v>300</v>
+      </c>
+      <c r="G29" s="32">
+        <v>40</v>
+      </c>
+      <c r="H29" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="32">
+        <v>100</v>
+      </c>
+      <c r="L29" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M29" s="32">
+        <v>2</v>
+      </c>
+      <c r="N29" s="32">
+        <v>75</v>
+      </c>
+      <c r="O29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+    </row>
+    <row r="30" spans="1:25" s="28" customFormat="1">
+      <c r="A30" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="32">
+        <v>50</v>
+      </c>
+      <c r="E30" s="32">
+        <v>6000</v>
+      </c>
+      <c r="F30" s="32">
+        <v>40</v>
+      </c>
+      <c r="G30" s="32">
+        <v>40</v>
+      </c>
+      <c r="H30" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="32">
+        <v>100</v>
+      </c>
+      <c r="L30" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M30" s="32">
+        <v>2</v>
+      </c>
+      <c r="N30" s="32">
+        <v>10</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+    </row>
+    <row r="31" spans="1:25" s="28" customFormat="1">
+      <c r="A31" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="32">
+        <v>80</v>
+      </c>
+      <c r="E31" s="32">
+        <v>100</v>
+      </c>
+      <c r="F31" s="32">
+        <v>325</v>
+      </c>
+      <c r="G31" s="32">
+        <v>40</v>
+      </c>
+      <c r="H31" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K31" s="32">
+        <v>100</v>
+      </c>
+      <c r="L31" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M31" s="32">
+        <v>2</v>
+      </c>
+      <c r="N31" s="32">
+        <f>F31/4</f>
+        <v>81.25</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+    </row>
+    <row r="32" spans="1:25" s="28" customFormat="1">
+      <c r="A32" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="32">
+        <v>50</v>
+      </c>
+      <c r="E32" s="32">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="32">
+        <v>35</v>
+      </c>
+      <c r="G32" s="32">
+        <v>40</v>
+      </c>
+      <c r="H32" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K32" s="32">
+        <v>100</v>
+      </c>
+      <c r="L32" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M32" s="32">
+        <v>2</v>
+      </c>
+      <c r="N32" s="32">
+        <f>F32/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+    </row>
+    <row r="33" spans="1:25" s="28" customFormat="1">
+      <c r="A33" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="32">
+        <v>80</v>
+      </c>
+      <c r="E33" s="32">
+        <v>100</v>
+      </c>
+      <c r="F33" s="32">
+        <v>325</v>
+      </c>
+      <c r="G33" s="32">
+        <v>40</v>
+      </c>
+      <c r="H33" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I33" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="32">
+        <v>100</v>
+      </c>
+      <c r="L33" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M33" s="32">
+        <v>2</v>
+      </c>
+      <c r="N33" s="32">
+        <f>F33/4</f>
+        <v>81.25</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+    </row>
+    <row r="34" spans="1:25" s="28" customFormat="1">
+      <c r="A34" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="32">
+        <v>50</v>
+      </c>
+      <c r="E34" s="32">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="32">
+        <v>35</v>
+      </c>
+      <c r="G34" s="32">
+        <v>40</v>
+      </c>
+      <c r="H34" s="32">
+        <v>2.02</v>
+      </c>
+      <c r="I34" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K34" s="32">
+        <v>100</v>
+      </c>
+      <c r="L34" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="M34" s="32">
+        <v>2</v>
+      </c>
+      <c r="N34" s="32">
+        <f>F34/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D35" s="2">
         <v>300</v>
       </c>
-      <c r="E23" s="2">
-        <f>1/(G23*1000*0.4*0.00000001)</f>
+      <c r="E35" s="2">
+        <f>1/(G35*1000*0.4*0.00000001)</f>
         <v>24999.999999999996</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F35" s="2">
         <v>7</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G35" s="2">
         <v>10</v>
       </c>
-      <c r="H23" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H35" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J35" s="2">
         <v>0.97</v>
       </c>
-      <c r="K23" s="2">
-        <v>100</v>
-      </c>
-      <c r="L23" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="K35" s="20">
+        <v>24999.999999999996</v>
+      </c>
+      <c r="L35" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N35" s="2">
         <v>2</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="2" t="s">
+      <c r="O35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="36" spans="1:25">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D36" s="2">
         <v>300</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E36" s="2">
         <v>25000</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F36" s="2">
         <v>25</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G36" s="2">
         <v>25</v>
       </c>
-      <c r="H24" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H36" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J36" s="2">
         <v>0.97</v>
       </c>
-      <c r="K24" s="2">
-        <v>100</v>
-      </c>
-      <c r="L24" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="K36" s="20">
+        <v>24999.999999999996</v>
+      </c>
+      <c r="L36" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N36" s="2">
         <v>6.25</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="O36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="37" spans="1:25">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="7">
-        <v>100</v>
-      </c>
-      <c r="E25" s="7">
-        <v>100</v>
-      </c>
-      <c r="F25" s="7">
-        <v>100</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="D37" s="7">
+        <v>100</v>
+      </c>
+      <c r="E37" s="7">
+        <v>100</v>
+      </c>
+      <c r="F37" s="7">
+        <v>100</v>
+      </c>
+      <c r="G37" s="7">
         <v>40</v>
       </c>
-      <c r="H25" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="H37" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I37" s="7">
         <v>0.05</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J37" s="7">
         <v>0.95</v>
       </c>
-      <c r="K25" s="7">
-        <v>50</v>
-      </c>
-      <c r="L25" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M25" s="7">
+      <c r="K37" s="7">
+        <v>50</v>
+      </c>
+      <c r="L37" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M37" s="7">
         <v>1</v>
       </c>
-      <c r="N25" s="7">
-        <v>50</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="N37" s="7">
+        <v>50</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="38" spans="1:25">
+      <c r="A38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="7">
-        <v>100</v>
-      </c>
-      <c r="E26" s="7">
-        <v>100</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="D38" s="7">
+        <v>100</v>
+      </c>
+      <c r="E38" s="7">
+        <v>100</v>
+      </c>
+      <c r="F38" s="7">
         <v>300</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G38" s="7">
         <v>40</v>
       </c>
-      <c r="H26" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H38" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I38" s="8">
         <v>0.05</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J38" s="7">
         <v>0.95</v>
       </c>
-      <c r="K26" s="7">
-        <v>50</v>
-      </c>
-      <c r="L26" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M26" s="7">
+      <c r="K38" s="7">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M38" s="7">
         <v>1</v>
       </c>
-      <c r="N26" s="7">
-        <v>100</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="7" t="s">
+      <c r="N38" s="7">
+        <v>100</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="39" spans="1:25">
+      <c r="A39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D39" s="7">
         <v>325</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E39" s="7">
         <v>150</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F39" s="7">
         <v>275</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G39" s="7">
         <v>88</v>
       </c>
-      <c r="H27" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H39" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I39" s="8">
         <v>0.05</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J39" s="7">
         <v>0.95</v>
       </c>
-      <c r="K27" s="7">
-        <v>100</v>
-      </c>
-      <c r="L27" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="K39" s="7">
+        <v>100</v>
+      </c>
+      <c r="L39" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M39" s="7">
         <v>1</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N39" s="7">
         <v>75</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="7" t="s">
+      <c r="O39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="40" spans="1:25">
+      <c r="A40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D40" s="7">
         <v>250</v>
       </c>
-      <c r="E28" s="7">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E40" s="7">
+        <v>100</v>
+      </c>
+      <c r="F40" s="7">
         <v>300</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G40" s="7">
         <v>73</v>
       </c>
-      <c r="H28" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="H40" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I40" s="7">
         <v>0.05</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J40" s="7">
         <v>0.94</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K40" s="7">
         <v>55</v>
       </c>
-      <c r="L28" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M28" s="7">
+      <c r="L40" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M40" s="7">
         <v>1</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N40" s="7">
         <v>57.5</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="O40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="41" spans="1:25">
+      <c r="A41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D41" s="7">
         <v>250</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E41" s="7">
         <v>300</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F41" s="7">
         <v>300</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G41" s="7">
         <v>73</v>
       </c>
-      <c r="H29" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="H41" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I41" s="7">
         <v>0.05</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J41" s="7">
         <v>0.91</v>
       </c>
-      <c r="K29" s="7">
-        <v>50</v>
-      </c>
-      <c r="L29" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M29" s="7">
+      <c r="K41" s="7">
+        <v>50</v>
+      </c>
+      <c r="L41" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N41" s="7">
         <v>75</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="O41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="42" spans="1:25">
+      <c r="A42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D42" s="7">
         <v>250</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E42" s="7">
         <v>400</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F42" s="7">
         <v>300</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G42" s="7">
         <v>73</v>
       </c>
-      <c r="H30" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="H42" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I42" s="7">
         <v>0.05</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J42" s="7">
         <v>0.91</v>
       </c>
-      <c r="K30" s="7">
-        <v>50</v>
-      </c>
-      <c r="L30" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M30" s="7">
+      <c r="K42" s="7">
+        <v>50</v>
+      </c>
+      <c r="L42" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M42" s="7">
         <v>1</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N42" s="7">
         <v>67.5</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="7" t="s">
+      <c r="O42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="43" spans="1:25">
+      <c r="A43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D43" s="7">
         <v>250</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E43" s="7">
         <v>450</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F43" s="7">
         <v>300</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G43" s="7">
         <v>73</v>
       </c>
-      <c r="H31" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="H43" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I43" s="7">
         <v>0.05</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J43" s="7">
         <v>0.91</v>
       </c>
-      <c r="K31" s="7">
-        <v>50</v>
-      </c>
-      <c r="L31" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="K43" s="7">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M43" s="7">
         <v>1</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N43" s="7">
         <v>67.5</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="7" t="s">
+      <c r="O43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="44" spans="1:25">
+      <c r="A44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D44" s="7">
         <v>250</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E44" s="7">
         <v>500</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F44" s="7">
         <v>300</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G44" s="7">
         <v>73</v>
       </c>
-      <c r="H32" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="H44" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I44" s="7">
         <v>0.05</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J44" s="7">
         <v>0.91</v>
       </c>
-      <c r="K32" s="7">
-        <v>50</v>
-      </c>
-      <c r="L32" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="K44" s="7">
+        <v>50</v>
+      </c>
+      <c r="L44" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M44" s="7">
         <v>1</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N44" s="7">
         <v>75</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="7" t="s">
+      <c r="O44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="45" spans="1:25">
+      <c r="A45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D45" s="7">
         <v>250</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E45" s="7">
         <v>550</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F45" s="7">
         <v>300</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G45" s="7">
         <v>73</v>
       </c>
-      <c r="H33" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="H45" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I45" s="7">
         <v>0.05</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J45" s="7">
         <v>0.91</v>
       </c>
-      <c r="K33" s="7">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M33" s="7">
+      <c r="K45" s="7">
+        <v>50</v>
+      </c>
+      <c r="L45" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M45" s="7">
         <v>1</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N45" s="7">
         <v>67.5</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="7" t="s">
+      <c r="O45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="46" spans="1:25">
+      <c r="A46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D46" s="7">
         <v>250</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E46" s="7">
         <v>600</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F46" s="7">
         <v>300</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G46" s="7">
         <v>73</v>
       </c>
-      <c r="H34" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I34" s="7">
+      <c r="H46" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I46" s="7">
         <v>0.05</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J46" s="7">
         <v>0.91</v>
       </c>
-      <c r="K34" s="7">
-        <v>50</v>
-      </c>
-      <c r="L34" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M34" s="7">
+      <c r="K46" s="7">
+        <v>50</v>
+      </c>
+      <c r="L46" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M46" s="7">
         <v>1</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N46" s="7">
         <v>67.5</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="O46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="47" spans="1:25">
+      <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D47" s="7">
         <v>250</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E47" s="7">
         <v>1000</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F47" s="7">
         <v>300</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G47" s="7">
         <v>73</v>
       </c>
-      <c r="H35" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="H47" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I47" s="7">
         <v>0.05</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J47" s="7">
         <v>0.91</v>
       </c>
-      <c r="K35" s="7">
-        <v>50</v>
-      </c>
-      <c r="L35" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="K47" s="7">
+        <v>50</v>
+      </c>
+      <c r="L47" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="M47" s="7">
         <v>1</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N47" s="7">
         <v>75</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="7" t="s">
+      <c r="O47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="10" customFormat="1">
-      <c r="A36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="10" t="s">
+    <row r="48" spans="1:25" s="10" customFormat="1">
+      <c r="A48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" s="10">
-        <v>300</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1500</v>
-      </c>
-      <c r="F36" s="10">
-        <v>150</v>
-      </c>
-      <c r="G36" s="10">
-        <v>5</v>
-      </c>
-      <c r="H36" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="K36" s="10">
-        <v>50</v>
-      </c>
-      <c r="L36" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1</v>
-      </c>
-      <c r="N36" s="10">
-        <v>37.5</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>0.32926800000000001</v>
-      </c>
-      <c r="R36" s="10">
-        <v>5.8822999999999999</v>
-      </c>
-      <c r="S36" s="10">
-        <v>5.7511340000000004</v>
-      </c>
-      <c r="T36" s="10">
-        <v>5.3957240000000004</v>
-      </c>
-      <c r="U36" s="10">
-        <v>0.31009503308842501</v>
-      </c>
-      <c r="V36" s="10">
-        <v>5.7907683503593796</v>
-      </c>
-      <c r="W36" s="10">
-        <v>5.6656691506201096</v>
-      </c>
-      <c r="X36" s="10">
-        <v>5.35313828972133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" s="10" customFormat="1">
-      <c r="A37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="10">
-        <v>100</v>
-      </c>
-      <c r="E37" s="10">
-        <v>100</v>
-      </c>
-      <c r="F37" s="10">
-        <v>300</v>
-      </c>
-      <c r="G37" s="10">
-        <v>40</v>
-      </c>
-      <c r="H37" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="K37" s="10">
-        <v>100</v>
-      </c>
-      <c r="L37" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M37" s="10">
-        <v>1</v>
-      </c>
-      <c r="N37" s="10">
-        <v>50</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" s="10" customFormat="1">
-      <c r="A38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="10">
-        <v>300</v>
-      </c>
-      <c r="E38" s="10">
-        <v>1500</v>
-      </c>
-      <c r="F38" s="10">
-        <v>200</v>
-      </c>
-      <c r="G38" s="10">
-        <v>5</v>
-      </c>
-      <c r="H38" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="K38" s="10">
-        <v>50</v>
-      </c>
-      <c r="L38" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M38" s="10">
-        <v>1</v>
-      </c>
-      <c r="N38" s="10">
-        <v>50</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>0.75167600000000001</v>
-      </c>
-      <c r="R38" s="10">
-        <v>7.8483010000000002</v>
-      </c>
-      <c r="S38" s="10">
-        <v>7.6242330000000003</v>
-      </c>
-      <c r="T38" s="10">
-        <v>7.2113100000000001</v>
-      </c>
-      <c r="U38" s="10">
-        <v>0.69518119667081901</v>
-      </c>
-      <c r="V38" s="10">
-        <v>7.7269948552311698</v>
-      </c>
-      <c r="W38" s="10">
-        <v>7.51758250343185</v>
-      </c>
-      <c r="X38" s="10">
-        <v>7.1690879268755898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="15">
-      <c r="A39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="10">
-        <v>200</v>
-      </c>
-      <c r="E39" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F39" s="10">
-        <v>40</v>
-      </c>
-      <c r="G39" s="10">
-        <v>45</v>
-      </c>
-      <c r="H39" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I39" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K39" s="10">
-        <v>200</v>
-      </c>
-      <c r="L39" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M39" s="10">
-        <v>1</v>
-      </c>
-      <c r="N39" s="10">
-        <v>10</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" ht="15">
-      <c r="A40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="10">
-        <v>200</v>
-      </c>
-      <c r="E40" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F40" s="10">
-        <v>40</v>
-      </c>
-      <c r="G40" s="10">
-        <v>67</v>
-      </c>
-      <c r="H40" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I40" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K40" s="10">
-        <v>200</v>
-      </c>
-      <c r="L40" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M40" s="10">
-        <v>1</v>
-      </c>
-      <c r="N40" s="10">
-        <v>10</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28" ht="15">
-      <c r="A41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="10">
-        <v>200</v>
-      </c>
-      <c r="E41" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F41" s="10">
-        <v>125</v>
-      </c>
-      <c r="G41" s="10">
-        <v>10</v>
-      </c>
-      <c r="H41" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I41" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="J41" s="10">
-        <f>0.91*1</f>
-        <v>0.91</v>
-      </c>
-      <c r="K41" s="10">
-        <v>200</v>
-      </c>
-      <c r="L41" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M41" s="10">
-        <v>1</v>
-      </c>
-      <c r="N41" s="10">
-        <v>31.3</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" s="18" customFormat="1" ht="15">
-      <c r="A42" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="25">
-        <v>300</v>
-      </c>
-      <c r="E42" s="25">
-        <v>7000</v>
-      </c>
-      <c r="F42" s="25">
-        <v>50</v>
-      </c>
-      <c r="G42" s="25">
-        <v>30</v>
-      </c>
-      <c r="H42" s="25">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I42" s="25">
-        <v>0.11</v>
-      </c>
-      <c r="J42" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="K42" s="25">
-        <v>250</v>
-      </c>
-      <c r="L42" s="25">
-        <v>16.5</v>
-      </c>
-      <c r="M42" s="25">
-        <v>1</v>
-      </c>
-      <c r="N42" s="25">
-        <v>10</v>
-      </c>
-      <c r="O42" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-    </row>
-    <row r="43" spans="1:28" ht="15">
-      <c r="A43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="10">
-        <v>300</v>
-      </c>
-      <c r="E43" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F43" s="10">
-        <v>40</v>
-      </c>
-      <c r="G43" s="10">
-        <v>66</v>
-      </c>
-      <c r="H43" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I43" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K43" s="10">
-        <v>200</v>
-      </c>
-      <c r="L43" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M43" s="10">
-        <v>1</v>
-      </c>
-      <c r="N43" s="10">
-        <v>10</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" ht="15">
-      <c r="A44" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="10">
-        <v>300</v>
-      </c>
-      <c r="E44" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F44" s="10">
-        <v>40</v>
-      </c>
-      <c r="G44" s="10">
-        <v>63</v>
-      </c>
-      <c r="H44" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K44" s="10">
-        <v>200</v>
-      </c>
-      <c r="L44" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M44" s="10">
-        <v>1</v>
-      </c>
-      <c r="N44" s="10">
-        <v>10</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" ht="15">
-      <c r="A45" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="10">
-        <v>300</v>
-      </c>
-      <c r="E45" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F45" s="10">
-        <v>40</v>
-      </c>
-      <c r="G45" s="10">
-        <v>38</v>
-      </c>
-      <c r="H45" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I45" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K45" s="10">
-        <v>200</v>
-      </c>
-      <c r="L45" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M45" s="10">
-        <v>1</v>
-      </c>
-      <c r="N45" s="10">
-        <v>10</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" ht="15">
-      <c r="A46" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="10">
-        <v>300</v>
-      </c>
-      <c r="E46" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F46" s="10">
-        <v>40</v>
-      </c>
-      <c r="G46" s="10">
-        <v>25</v>
-      </c>
-      <c r="H46" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K46" s="10">
-        <v>200</v>
-      </c>
-      <c r="L46" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M46" s="10">
-        <v>1</v>
-      </c>
-      <c r="N46" s="10">
-        <v>10</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" ht="15">
-      <c r="A47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="10">
-        <v>300</v>
-      </c>
-      <c r="E47" s="10">
-        <v>6000</v>
-      </c>
-      <c r="F47" s="10">
-        <v>40</v>
-      </c>
-      <c r="G47" s="10">
-        <v>12</v>
-      </c>
-      <c r="H47" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K47" s="10">
-        <v>200</v>
-      </c>
-      <c r="L47" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="M47" s="10">
-        <v>1</v>
-      </c>
-      <c r="N47" s="10">
-        <v>10</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" ht="15">
-      <c r="A48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="D48" s="10">
         <v>300</v>
       </c>
       <c r="E48" s="10">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="10">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G48" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48" s="10">
         <v>2.0299999999999998</v>
       </c>
       <c r="I48" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J48" s="10">
-        <v>0.9</v>
+        <v>0.05</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="K48" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L48" s="10">
         <v>16.5</v>
@@ -3570,52 +3815,72 @@
         <v>1</v>
       </c>
       <c r="N48" s="10">
-        <v>10</v>
+        <v>37.5</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" ht="15">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="46">
+        <v>0.32926800000000001</v>
+      </c>
+      <c r="R48" s="46">
+        <v>5.8822999999999999</v>
+      </c>
+      <c r="S48" s="46">
+        <v>5.7511340000000004</v>
+      </c>
+      <c r="T48" s="46">
+        <v>5.3957240000000004</v>
+      </c>
+      <c r="U48" s="46">
+        <v>0.31009503308842501</v>
+      </c>
+      <c r="V48" s="46">
+        <v>5.7907683503593796</v>
+      </c>
+      <c r="W48" s="46">
+        <v>5.6656691506201096</v>
+      </c>
+      <c r="X48" s="46">
+        <v>5.35313828972133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="10" customFormat="1">
       <c r="A49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D49" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="10">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="F49" s="10">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="G49" s="10">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H49" s="10">
         <v>2.0299999999999998</v>
       </c>
       <c r="I49" s="10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J49" s="10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="K49" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="10">
         <v>16.5</v>
@@ -3624,191 +3889,199 @@
         <v>1</v>
       </c>
       <c r="N49" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+    </row>
+    <row r="50" spans="1:28" s="10" customFormat="1">
+      <c r="A50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="10">
+        <v>300</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1500</v>
+      </c>
+      <c r="F50" s="10">
+        <v>200</v>
+      </c>
+      <c r="G50" s="10">
+        <v>5</v>
+      </c>
+      <c r="H50" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="K50" s="10">
+        <v>50</v>
+      </c>
+      <c r="L50" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M50" s="10">
+        <v>1</v>
+      </c>
+      <c r="N50" s="10">
+        <v>50</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="46">
+        <v>0.75167600000000001</v>
+      </c>
+      <c r="R50" s="46">
+        <v>7.8483010000000002</v>
+      </c>
+      <c r="S50" s="46">
+        <v>7.6242330000000003</v>
+      </c>
+      <c r="T50" s="46">
+        <v>7.2113100000000001</v>
+      </c>
+      <c r="U50" s="46">
+        <v>0.69518119667081901</v>
+      </c>
+      <c r="V50" s="46">
+        <v>7.7269948552311698</v>
+      </c>
+      <c r="W50" s="46">
+        <v>7.51758250343185</v>
+      </c>
+      <c r="X50" s="46">
+        <v>7.1690879268755898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15">
+      <c r="A51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C51" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="10">
         <v>200</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="10">
         <v>6000</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F51" s="10">
         <v>40</v>
       </c>
-      <c r="G50" s="5">
-        <v>38</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="G51" s="10">
+        <v>45</v>
+      </c>
+      <c r="H51" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J51" s="10">
         <v>0.9</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K51" s="10">
         <v>200</v>
       </c>
-      <c r="L50" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M50" s="5">
+      <c r="L51" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M51" s="10">
         <v>1</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N51" s="10">
         <v>10</v>
       </c>
-      <c r="O50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="O51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" ht="15">
+      <c r="A52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="10">
         <v>200</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="10">
         <v>6000</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F52" s="10">
         <v>40</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G52" s="10">
         <v>67</v>
       </c>
-      <c r="H51" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="H52" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J52" s="10">
         <v>0.9</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K52" s="10">
         <v>200</v>
       </c>
-      <c r="L51" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M51" s="5">
+      <c r="L52" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M52" s="10">
         <v>1</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N52" s="10">
         <v>10</v>
       </c>
-      <c r="O51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="15">
-      <c r="A52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="5">
-        <v>300</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1500</v>
-      </c>
-      <c r="F52" s="5">
-        <v>150</v>
-      </c>
-      <c r="G52" s="5">
-        <v>5</v>
-      </c>
-      <c r="H52" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K52" s="5">
-        <v>100</v>
-      </c>
-      <c r="L52" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M52" s="5">
-        <v>1</v>
-      </c>
-      <c r="N52" s="5">
-        <v>37.5</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="5" t="s">
+      <c r="O52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0.69364000000000003</v>
-      </c>
-      <c r="R52" s="3">
-        <v>5.8062690000000003</v>
-      </c>
-      <c r="S52" s="3">
-        <v>5.5236720000000004</v>
-      </c>
-      <c r="T52" s="3">
-        <v>5.2942289999999996</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0.76099041541326395</v>
-      </c>
-      <c r="V52" s="3">
-        <v>5.8699981936216297</v>
-      </c>
-      <c r="W52" s="3">
-        <v>5.56921886208481</v>
-      </c>
-      <c r="X52" s="3">
-        <v>5.4638577165093603</v>
       </c>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
@@ -3816,185 +4089,170 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" ht="15">
-      <c r="A53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="5">
-        <v>300</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1500</v>
-      </c>
-      <c r="F53" s="5">
+      <c r="A53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="10">
         <v>200</v>
       </c>
-      <c r="G53" s="5">
-        <v>5</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K53" s="5">
-        <v>100</v>
-      </c>
-      <c r="L53" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M53" s="5">
+      <c r="E53" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F53" s="10">
+        <v>125</v>
+      </c>
+      <c r="G53" s="10">
+        <v>10</v>
+      </c>
+      <c r="H53" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="J53" s="10">
+        <f>0.91*1</f>
+        <v>0.91</v>
+      </c>
+      <c r="K53" s="10">
+        <v>200</v>
+      </c>
+      <c r="L53" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M53" s="10">
         <v>1</v>
       </c>
-      <c r="N53" s="5">
-        <v>50</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>1.243671</v>
-      </c>
-      <c r="R53" s="3">
-        <v>7.7440819999999997</v>
-      </c>
-      <c r="S53" s="3">
-        <v>7.364554</v>
-      </c>
-      <c r="T53" s="3">
-        <v>7.0506279999999997</v>
-      </c>
-      <c r="U53" s="3">
-        <v>1.13064213727628</v>
-      </c>
-      <c r="V53" s="3">
-        <v>7.7568453051029804</v>
-      </c>
-      <c r="W53" s="3">
-        <v>7.41349024884199</v>
-      </c>
-      <c r="X53" s="3">
-        <v>7.1113147969694204</v>
+      <c r="N53" s="10">
+        <v>31.3</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" ht="15">
-      <c r="A54" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:28" s="18" customFormat="1" ht="15">
+      <c r="A54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="25">
+        <v>300</v>
+      </c>
+      <c r="E54" s="25">
+        <v>7000</v>
+      </c>
+      <c r="F54" s="25">
+        <v>50</v>
+      </c>
+      <c r="G54" s="25">
+        <v>30</v>
+      </c>
+      <c r="H54" s="25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I54" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="J54" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K54" s="25">
+        <v>250</v>
+      </c>
+      <c r="L54" s="25">
+        <v>16.5</v>
+      </c>
+      <c r="M54" s="25">
+        <v>1</v>
+      </c>
+      <c r="N54" s="25">
+        <v>10</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+    </row>
+    <row r="55" spans="1:28" ht="15">
+      <c r="A55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="10">
+        <v>300</v>
+      </c>
+      <c r="E55" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F55" s="10">
+        <v>40</v>
+      </c>
+      <c r="G55" s="10">
+        <v>66</v>
+      </c>
+      <c r="H55" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K55" s="10">
         <v>200</v>
       </c>
-      <c r="E54" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F54" s="5">
-        <v>40</v>
-      </c>
-      <c r="G54" s="5">
-        <v>13</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K54" s="5">
-        <v>200</v>
-      </c>
-      <c r="L54" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M54" s="5">
+      <c r="L55" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M55" s="10">
         <v>1</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N55" s="10">
         <v>10</v>
       </c>
-      <c r="O54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-    </row>
-    <row r="55" spans="1:28" ht="15">
-      <c r="A55" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="5">
-        <v>200</v>
-      </c>
-      <c r="E55" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F55" s="5">
-        <v>40</v>
-      </c>
-      <c r="G55" s="5">
-        <v>21</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K55" s="5">
-        <v>200</v>
-      </c>
-      <c r="L55" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M55" s="5">
-        <v>1</v>
-      </c>
-      <c r="N55" s="5">
-        <v>10</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>21</v>
+      <c r="O55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -4002,53 +4260,53 @@
       <c r="AB55" s="1"/>
     </row>
     <row r="56" spans="1:28" ht="15">
-      <c r="A56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="10">
+        <v>300</v>
+      </c>
+      <c r="E56" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F56" s="10">
+        <v>40</v>
+      </c>
+      <c r="G56" s="10">
+        <v>63</v>
+      </c>
+      <c r="H56" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K56" s="10">
         <v>200</v>
       </c>
-      <c r="E56" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F56" s="5">
-        <v>40</v>
-      </c>
-      <c r="G56" s="5">
-        <v>67</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K56" s="5">
-        <v>200</v>
-      </c>
-      <c r="L56" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M56" s="5">
+      <c r="L56" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M56" s="10">
         <v>1</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="10">
         <v>10</v>
       </c>
-      <c r="O56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>21</v>
+      <c r="O56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -4056,257 +4314,3028 @@
       <c r="AB56" s="1"/>
     </row>
     <row r="57" spans="1:28" ht="15">
-      <c r="A57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="A57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="10">
+        <v>300</v>
+      </c>
+      <c r="E57" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="10">
+        <v>40</v>
+      </c>
+      <c r="G57" s="10">
+        <v>38</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K57" s="10">
         <v>200</v>
       </c>
-      <c r="E57" s="5">
-        <v>100</v>
-      </c>
-      <c r="F57" s="5">
-        <v>300</v>
-      </c>
-      <c r="G57" s="5">
-        <v>40</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K57" s="5">
-        <v>100</v>
-      </c>
-      <c r="L57" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M57" s="5">
+      <c r="L57" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M57" s="10">
         <v>1</v>
       </c>
-      <c r="N57" s="5">
-        <v>75</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>21</v>
+      <c r="N57" s="10">
+        <v>10</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:28" ht="15">
+      <c r="A58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="10">
+        <v>300</v>
+      </c>
+      <c r="E58" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F58" s="10">
+        <v>40</v>
+      </c>
+      <c r="G58" s="10">
+        <v>25</v>
+      </c>
+      <c r="H58" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J58" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K58" s="10">
+        <v>200</v>
+      </c>
+      <c r="L58" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M58" s="10">
+        <v>1</v>
+      </c>
+      <c r="N58" s="10">
+        <v>10</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="1:28" ht="15">
+      <c r="A59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="10">
+        <v>300</v>
+      </c>
+      <c r="E59" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="10">
+        <v>40</v>
+      </c>
+      <c r="G59" s="10">
+        <v>12</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K59" s="10">
+        <v>200</v>
+      </c>
+      <c r="L59" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M59" s="10">
+        <v>1</v>
+      </c>
+      <c r="N59" s="10">
+        <v>10</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:28" ht="15">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="10">
+        <v>300</v>
+      </c>
+      <c r="E60" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F60" s="10">
+        <v>40</v>
+      </c>
+      <c r="G60" s="10">
+        <v>6</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K60" s="10">
+        <v>200</v>
+      </c>
+      <c r="L60" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="M60" s="10">
+        <v>1</v>
+      </c>
+      <c r="N60" s="10">
+        <v>10</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:28" ht="15">
+      <c r="A61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="7">
+        <v>200</v>
+      </c>
+      <c r="E61" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F61" s="7">
+        <v>35</v>
+      </c>
+      <c r="G61" s="7">
+        <v>6</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K61" s="7">
+        <v>100</v>
+      </c>
+      <c r="L61" s="7">
+        <v>16.25</v>
+      </c>
+      <c r="M61" s="7">
+        <v>2</v>
+      </c>
+      <c r="N61" s="7">
+        <v>10</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:28" ht="15">
+      <c r="A62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="7">
+        <v>600</v>
+      </c>
+      <c r="E62" s="7">
+        <v>100</v>
+      </c>
+      <c r="F62" s="7">
+        <v>300</v>
+      </c>
+      <c r="G62" s="7">
+        <v>10</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K62" s="7">
+        <v>50</v>
+      </c>
+      <c r="L62" s="7">
+        <v>16.25</v>
+      </c>
+      <c r="M62" s="7">
+        <v>2</v>
+      </c>
+      <c r="N62" s="7">
+        <v>75</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="1:28" ht="15">
+      <c r="A63" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="30">
+        <v>150</v>
+      </c>
+      <c r="E63" s="30">
+        <v>100</v>
+      </c>
+      <c r="F63" s="30">
+        <v>300</v>
+      </c>
+      <c r="G63" s="30">
+        <v>60</v>
+      </c>
+      <c r="H63" s="30">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I63" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J63" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K63" s="30">
+        <v>100</v>
+      </c>
+      <c r="L63" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="M63" s="30">
+        <v>2</v>
+      </c>
+      <c r="N63" s="30">
+        <v>75</v>
+      </c>
+      <c r="O63" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="1:28" ht="15">
+      <c r="A64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="7">
+        <v>250</v>
+      </c>
+      <c r="E64" s="7">
+        <v>100</v>
+      </c>
+      <c r="F64" s="7">
+        <v>300</v>
+      </c>
+      <c r="G64" s="7">
+        <v>40</v>
+      </c>
+      <c r="H64" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K64" s="7">
+        <v>100</v>
+      </c>
+      <c r="L64" s="7">
+        <v>16.25</v>
+      </c>
+      <c r="M64" s="7">
+        <v>2</v>
+      </c>
+      <c r="N64" s="7">
+        <v>75</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="1:28" ht="15">
+      <c r="A65" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="30">
+        <v>250</v>
+      </c>
+      <c r="E65" s="30">
+        <v>100</v>
+      </c>
+      <c r="F65" s="30">
+        <v>300</v>
+      </c>
+      <c r="G65" s="30">
+        <v>40</v>
+      </c>
+      <c r="H65" s="30">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I65" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K65" s="30">
+        <v>100</v>
+      </c>
+      <c r="L65" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="M65" s="30">
+        <v>2</v>
+      </c>
+      <c r="N65" s="30">
+        <v>75</v>
+      </c>
+      <c r="O65" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:28" ht="15">
+      <c r="A66" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="30">
+        <v>188</v>
+      </c>
+      <c r="E66" s="30">
+        <v>100</v>
+      </c>
+      <c r="F66" s="30">
+        <v>300</v>
+      </c>
+      <c r="G66" s="30">
+        <v>60</v>
+      </c>
+      <c r="H66" s="30">
+        <v>2.11</v>
+      </c>
+      <c r="I66" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K66" s="30">
+        <v>100</v>
+      </c>
+      <c r="L66" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="M66" s="30">
+        <v>2</v>
+      </c>
+      <c r="N66" s="30">
+        <v>75</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="48">
+        <v>2.7502399999999998</v>
+      </c>
+      <c r="R66" s="48">
+        <v>9.2295160000000003</v>
+      </c>
+      <c r="S66" s="48">
+        <v>8.5305909999999994</v>
+      </c>
+      <c r="T66" s="48">
+        <v>8.4578889999999998</v>
+      </c>
+      <c r="U66" s="48">
+        <v>2.6748085278255398</v>
+      </c>
+      <c r="V66" s="48">
+        <v>9.3459195373799293</v>
+      </c>
+      <c r="W66" s="48">
+        <v>8.6430024996794792</v>
+      </c>
+      <c r="X66" s="48">
+        <v>8.5416786912922706</v>
+      </c>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="1:28" ht="15">
+      <c r="A67" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="30">
+        <v>188</v>
+      </c>
+      <c r="E67" s="30">
+        <v>10000</v>
+      </c>
+      <c r="F67" s="30">
+        <v>35</v>
+      </c>
+      <c r="G67" s="30">
+        <v>40</v>
+      </c>
+      <c r="H67" s="30">
+        <v>2.11</v>
+      </c>
+      <c r="I67" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="J67" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K67" s="30">
+        <v>100</v>
+      </c>
+      <c r="L67" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="M67" s="30">
+        <v>2</v>
+      </c>
+      <c r="N67" s="30">
+        <f>F67/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="48">
+        <v>1.1705509999999999</v>
+      </c>
+      <c r="R67" s="48">
+        <v>8.7810269999999999</v>
+      </c>
+      <c r="S67" s="48">
+        <v>8.469735</v>
+      </c>
+      <c r="T67" s="48">
+        <v>8.4064560000000004</v>
+      </c>
+      <c r="U67" s="48">
+        <v>1.1923758219740199</v>
+      </c>
+      <c r="V67" s="48">
+        <v>8.7855707455838594</v>
+      </c>
+      <c r="W67" s="48">
+        <v>8.4671017533708994</v>
+      </c>
+      <c r="X67" s="48">
+        <v>8.4042818619741997</v>
+      </c>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" spans="1:28" ht="15">
+      <c r="A68" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="30">
+        <v>337</v>
+      </c>
+      <c r="E68" s="30">
+        <v>100</v>
+      </c>
+      <c r="F68" s="30">
+        <v>325</v>
+      </c>
+      <c r="G68" s="30">
+        <v>60</v>
+      </c>
+      <c r="H68" s="30">
+        <v>2.11</v>
+      </c>
+      <c r="I68" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J68" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K68" s="30">
+        <v>100</v>
+      </c>
+      <c r="L68" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="M68" s="30">
+        <v>2</v>
+      </c>
+      <c r="N68" s="30">
+        <f>F68/4</f>
+        <v>81.25</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="48">
+        <v>2.7502399999999998</v>
+      </c>
+      <c r="R68" s="48">
+        <v>9.2295160000000003</v>
+      </c>
+      <c r="S68" s="48">
+        <v>8.5305909999999994</v>
+      </c>
+      <c r="T68" s="48">
+        <v>8.4578889999999998</v>
+      </c>
+      <c r="U68" s="48">
+        <v>2.6748085278255398</v>
+      </c>
+      <c r="V68" s="48">
+        <v>9.3459195373799293</v>
+      </c>
+      <c r="W68" s="48">
+        <v>8.6430024996794792</v>
+      </c>
+      <c r="X68" s="48">
+        <v>8.5416786912922706</v>
+      </c>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+    </row>
+    <row r="69" spans="1:28" ht="15">
+      <c r="A69" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="30">
+        <v>337</v>
+      </c>
+      <c r="E69" s="30">
+        <v>10000</v>
+      </c>
+      <c r="F69" s="30">
+        <v>35</v>
+      </c>
+      <c r="G69" s="30">
+        <v>40</v>
+      </c>
+      <c r="H69" s="30">
+        <v>2.11</v>
+      </c>
+      <c r="I69" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="J69" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K69" s="30">
+        <v>100</v>
+      </c>
+      <c r="L69" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="M69" s="30">
+        <v>2</v>
+      </c>
+      <c r="N69" s="30">
+        <f>F69/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="O69" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="48">
+        <v>1.1705509999999999</v>
+      </c>
+      <c r="R69" s="48">
+        <v>8.7810269999999999</v>
+      </c>
+      <c r="S69" s="48">
+        <v>8.469735</v>
+      </c>
+      <c r="T69" s="48">
+        <v>8.4064560000000004</v>
+      </c>
+      <c r="U69" s="48">
+        <v>1.1923758219740199</v>
+      </c>
+      <c r="V69" s="48">
+        <v>8.7855707455838594</v>
+      </c>
+      <c r="W69" s="48">
+        <v>8.4671017533708994</v>
+      </c>
+      <c r="X69" s="48">
+        <v>8.4042818619741997</v>
+      </c>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="5">
+        <v>200</v>
+      </c>
+      <c r="E70" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F70" s="5">
+        <v>40</v>
+      </c>
+      <c r="G70" s="5">
+        <v>38</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K70" s="5">
+        <v>200</v>
+      </c>
+      <c r="L70" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1</v>
+      </c>
+      <c r="N70" s="5">
+        <v>10</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="5">
+        <v>200</v>
+      </c>
+      <c r="E71" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F71" s="5">
+        <v>40</v>
+      </c>
+      <c r="G71" s="5">
+        <v>67</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K71" s="5">
+        <v>200</v>
+      </c>
+      <c r="L71" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M71" s="5">
+        <v>1</v>
+      </c>
+      <c r="N71" s="5">
+        <v>10</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="15">
+      <c r="A72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="5">
+        <v>300</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F72" s="5">
+        <v>150</v>
+      </c>
+      <c r="G72" s="5">
+        <v>5</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K72" s="5">
+        <v>100</v>
+      </c>
+      <c r="L72" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M72" s="5">
+        <v>1</v>
+      </c>
+      <c r="N72" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0.69364000000000003</v>
+      </c>
+      <c r="R72" s="3">
+        <v>5.8062690000000003</v>
+      </c>
+      <c r="S72" s="3">
+        <v>5.5236720000000004</v>
+      </c>
+      <c r="T72" s="3">
+        <v>5.2942289999999996</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0.76099041541326395</v>
+      </c>
+      <c r="V72" s="3">
+        <v>5.8699981936216297</v>
+      </c>
+      <c r="W72" s="3">
+        <v>5.56921886208481</v>
+      </c>
+      <c r="X72" s="3">
+        <v>5.4638577165093603</v>
+      </c>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+    </row>
+    <row r="73" spans="1:28" ht="15">
+      <c r="A73" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="5">
+        <v>300</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F73" s="5">
+        <v>200</v>
+      </c>
+      <c r="G73" s="5">
+        <v>5</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K73" s="5">
+        <v>100</v>
+      </c>
+      <c r="L73" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M73" s="5">
+        <v>1</v>
+      </c>
+      <c r="N73" s="5">
+        <v>50</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>1.243671</v>
+      </c>
+      <c r="R73" s="3">
+        <v>7.7440819999999997</v>
+      </c>
+      <c r="S73" s="3">
+        <v>7.364554</v>
+      </c>
+      <c r="T73" s="3">
+        <v>7.0506279999999997</v>
+      </c>
+      <c r="U73" s="3">
+        <v>1.13064213727628</v>
+      </c>
+      <c r="V73" s="3">
+        <v>7.7568453051029804</v>
+      </c>
+      <c r="W73" s="3">
+        <v>7.41349024884199</v>
+      </c>
+      <c r="X73" s="3">
+        <v>7.1113147969694204</v>
+      </c>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+    </row>
+    <row r="74" spans="1:28" ht="15">
+      <c r="A74" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="5">
+        <v>200</v>
+      </c>
+      <c r="E74" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F74" s="5">
+        <v>40</v>
+      </c>
+      <c r="G74" s="5">
+        <v>13</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K74" s="5">
+        <v>200</v>
+      </c>
+      <c r="L74" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M74" s="5">
+        <v>1</v>
+      </c>
+      <c r="N74" s="5">
+        <v>10</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+    </row>
+    <row r="75" spans="1:28" ht="15">
+      <c r="A75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="5">
+        <v>200</v>
+      </c>
+      <c r="E75" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F75" s="5">
+        <v>40</v>
+      </c>
+      <c r="G75" s="5">
+        <v>21</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K75" s="5">
+        <v>200</v>
+      </c>
+      <c r="L75" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M75" s="5">
+        <v>1</v>
+      </c>
+      <c r="N75" s="5">
+        <v>10</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+    </row>
+    <row r="76" spans="1:28" ht="15">
+      <c r="A76" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="36">
+        <v>200</v>
+      </c>
+      <c r="E76" s="36">
+        <v>6000</v>
+      </c>
+      <c r="F76" s="36">
+        <v>40</v>
+      </c>
+      <c r="G76" s="36">
+        <v>67</v>
+      </c>
+      <c r="H76" s="36">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I76" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="J76" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K76" s="36">
+        <v>100</v>
+      </c>
+      <c r="L76" s="36">
+        <v>16.5</v>
+      </c>
+      <c r="M76" s="36">
+        <v>1</v>
+      </c>
+      <c r="N76" s="36">
+        <v>10</v>
+      </c>
+      <c r="O76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+    </row>
+    <row r="77" spans="1:28" ht="15">
+      <c r="A77" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="5">
+        <v>200</v>
+      </c>
+      <c r="E77" s="5">
+        <v>100</v>
+      </c>
+      <c r="F77" s="5">
+        <v>300</v>
+      </c>
+      <c r="G77" s="5">
+        <v>40</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K77" s="5">
+        <v>100</v>
+      </c>
+      <c r="L77" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M77" s="5">
+        <v>1</v>
+      </c>
+      <c r="N77" s="5">
+        <v>75</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="5">
+        <v>200</v>
+      </c>
+      <c r="E78" s="5">
+        <v>100</v>
+      </c>
+      <c r="F78" s="5">
+        <v>300</v>
+      </c>
+      <c r="G78" s="5">
+        <v>40</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K78" s="5">
+        <v>100</v>
+      </c>
+      <c r="L78" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M78" s="5">
+        <v>0</v>
+      </c>
+      <c r="N78" s="5">
+        <v>75</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>3.6480640000000002</v>
+      </c>
+      <c r="R78" s="3">
+        <v>10.139953</v>
+      </c>
+      <c r="S78" s="3">
+        <v>9.1929499999999997</v>
+      </c>
+      <c r="T78" s="3">
+        <v>8.2893539999999994</v>
+      </c>
+      <c r="U78" s="3">
+        <v>3.6800532662468899</v>
+      </c>
+      <c r="V78" s="3">
+        <v>10.364583086283099</v>
+      </c>
+      <c r="W78" s="3">
+        <v>9.4411964481115707</v>
+      </c>
+      <c r="X78" s="3">
+        <v>8.6067403906957498</v>
+      </c>
+      <c r="Y78" s="3">
+        <f>U78*0.94</f>
+        <v>3.4592500702720761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="5">
+        <v>200</v>
+      </c>
+      <c r="E79" s="5">
+        <v>100</v>
+      </c>
+      <c r="F79" s="5">
+        <v>300</v>
+      </c>
+      <c r="G79" s="5">
+        <v>40</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K79" s="5">
+        <v>100</v>
+      </c>
+      <c r="L79" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M79" s="5">
+        <v>1</v>
+      </c>
+      <c r="N79" s="5">
+        <v>75</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>2.8103030000000002</v>
+      </c>
+      <c r="R79" s="3">
+        <v>10.142716999999999</v>
+      </c>
+      <c r="S79" s="3">
+        <v>9.4132099999999994</v>
+      </c>
+      <c r="T79" s="3">
+        <v>8.2895990000000008</v>
+      </c>
+      <c r="U79" s="3">
+        <v>4.0270495987323596</v>
+      </c>
+      <c r="V79" s="3">
+        <v>10.364583086283099</v>
+      </c>
+      <c r="W79" s="3">
+        <v>9.3541292907281708</v>
+      </c>
+      <c r="X79" s="3">
+        <v>8.6067403906957498</v>
+      </c>
+      <c r="Y79" s="3">
+        <f t="shared" ref="Y79:Y82" si="0">U79*0.94</f>
+        <v>3.7854266228084179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="5">
+        <v>200</v>
+      </c>
+      <c r="E80" s="5">
+        <v>100</v>
+      </c>
+      <c r="F80" s="5">
+        <v>300</v>
+      </c>
+      <c r="G80" s="5">
+        <v>40</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K80" s="5">
+        <v>100</v>
+      </c>
+      <c r="L80" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M80" s="5">
+        <v>2</v>
+      </c>
+      <c r="N80" s="5">
+        <v>75</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>3.6703350000000001</v>
+      </c>
+      <c r="R80" s="3">
+        <v>10.379286</v>
+      </c>
+      <c r="S80" s="3">
+        <v>9.4624640000000007</v>
+      </c>
+      <c r="T80" s="3">
+        <v>8.6136409999999994</v>
+      </c>
+      <c r="U80" s="3">
+        <v>4.1055695144393098</v>
+      </c>
+      <c r="V80" s="3">
+        <v>10.145061186029301</v>
+      </c>
+      <c r="W80" s="3">
+        <v>9.0764348028003301</v>
+      </c>
+      <c r="X80" s="3">
+        <v>8.2968970628830796</v>
+      </c>
+      <c r="Y80" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8592353435729509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="5">
+        <v>200</v>
+      </c>
+      <c r="E81" s="5">
+        <v>100</v>
+      </c>
+      <c r="F81" s="5">
+        <v>300</v>
+      </c>
+      <c r="G81" s="5">
+        <v>40</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K81" s="5">
+        <v>100</v>
+      </c>
+      <c r="L81" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M81" s="5">
+        <v>4</v>
+      </c>
+      <c r="N81" s="5">
+        <v>75</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>3.7719779999999998</v>
+      </c>
+      <c r="R81" s="3">
+        <v>10.134406999999999</v>
+      </c>
+      <c r="S81" s="3">
+        <v>9.1545229999999993</v>
+      </c>
+      <c r="T81" s="3">
+        <v>8.2824880000000007</v>
+      </c>
+      <c r="U81" s="3">
+        <v>4.2188733325235601</v>
+      </c>
+      <c r="V81" s="3">
+        <v>10.1362520628351</v>
+      </c>
+      <c r="W81" s="3">
+        <v>9.0369948464475502</v>
+      </c>
+      <c r="X81" s="3">
+        <v>8.2882977679640799</v>
+      </c>
+      <c r="Y81" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9657409325721464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D82" s="5">
         <v>200</v>
       </c>
-      <c r="E58" s="5">
-        <v>100</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="E82" s="5">
+        <v>100</v>
+      </c>
+      <c r="F82" s="5">
         <v>300</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G82" s="5">
         <v>40</v>
       </c>
-      <c r="H58" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J58" s="5">
+      <c r="H82" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="5">
         <v>0.9</v>
       </c>
-      <c r="K58" s="5">
-        <v>100</v>
-      </c>
-      <c r="L58" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M58" s="5">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5">
+      <c r="K82" s="5">
+        <v>100</v>
+      </c>
+      <c r="L82" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M82" s="5">
+        <v>2</v>
+      </c>
+      <c r="N82" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>2.0865710000000002</v>
+      </c>
+      <c r="R82" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="S82" s="3">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="T82" s="3">
+        <v>6.07</v>
+      </c>
+      <c r="U82" s="3">
+        <v>2.2059475493857299</v>
+      </c>
+      <c r="V82" s="3">
+        <v>7.4082583698262603</v>
+      </c>
+      <c r="W82" s="3">
+        <v>6.6241820439092898</v>
+      </c>
+      <c r="X82" s="3">
+        <v>6.0758217639296301</v>
+      </c>
+      <c r="Y82" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0735906964225861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="5">
+        <v>60</v>
+      </c>
+      <c r="E83" s="5">
+        <v>100</v>
+      </c>
+      <c r="F83" s="5">
+        <v>300</v>
+      </c>
+      <c r="G83" s="5">
+        <v>58</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K83" s="5">
+        <v>100</v>
+      </c>
+      <c r="L83" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M83" s="5">
+        <v>2</v>
+      </c>
+      <c r="N83" s="5">
         <v>75</v>
       </c>
-      <c r="O58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="5" t="s">
+      <c r="O83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="5" t="s">
+    <row r="84" spans="1:25">
+      <c r="A84" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="B84" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="5">
+        <v>60</v>
+      </c>
+      <c r="E84" s="5">
+        <v>100</v>
+      </c>
+      <c r="F84" s="5">
+        <v>300</v>
+      </c>
+      <c r="G84" s="5">
+        <v>59</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K84" s="5">
+        <v>100</v>
+      </c>
+      <c r="L84" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M84" s="5">
+        <v>2</v>
+      </c>
+      <c r="N84" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="5">
+        <v>275</v>
+      </c>
+      <c r="E85" s="5">
+        <v>100</v>
+      </c>
+      <c r="F85" s="5">
+        <v>300</v>
+      </c>
+      <c r="G85" s="5">
+        <v>59</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K85" s="5">
+        <v>100</v>
+      </c>
+      <c r="L85" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M85" s="5">
+        <v>2</v>
+      </c>
+      <c r="N85" s="5">
+        <v>75</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="5">
+        <v>275</v>
+      </c>
+      <c r="E86" s="5">
+        <v>100</v>
+      </c>
+      <c r="F86" s="5">
+        <v>300</v>
+      </c>
+      <c r="G86" s="5">
+        <v>59</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K86" s="5">
+        <v>100</v>
+      </c>
+      <c r="L86" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M86" s="5">
+        <v>2</v>
+      </c>
+      <c r="N86" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="5">
+        <v>275</v>
+      </c>
+      <c r="E87" s="5">
+        <v>100</v>
+      </c>
+      <c r="F87" s="5">
+        <v>300</v>
+      </c>
+      <c r="G87" s="5">
+        <v>59</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K87" s="5">
+        <v>100</v>
+      </c>
+      <c r="L87" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M87" s="5">
+        <v>2</v>
+      </c>
+      <c r="N87" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="18" customFormat="1">
+      <c r="A88" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="36">
+        <v>275</v>
+      </c>
+      <c r="E88" s="36">
+        <v>100</v>
+      </c>
+      <c r="F88" s="36">
+        <v>300</v>
+      </c>
+      <c r="G88" s="36">
+        <v>59</v>
+      </c>
+      <c r="H88" s="36">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I88" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="J88" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K88" s="36">
+        <v>100</v>
+      </c>
+      <c r="L88" s="36">
+        <v>16.5</v>
+      </c>
+      <c r="M88" s="36">
+        <v>2</v>
+      </c>
+      <c r="N88" s="36">
+        <v>75</v>
+      </c>
+      <c r="O88" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="16"/>
+    </row>
+    <row r="89" spans="1:25" s="18" customFormat="1">
+      <c r="A89" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="38">
+        <v>275</v>
+      </c>
+      <c r="E89" s="38">
+        <v>100</v>
+      </c>
+      <c r="F89" s="38">
+        <v>300</v>
+      </c>
+      <c r="G89" s="38">
+        <v>59</v>
+      </c>
+      <c r="H89" s="38">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="J89" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="K89" s="38">
+        <v>100</v>
+      </c>
+      <c r="L89" s="38">
+        <v>16.5</v>
+      </c>
+      <c r="M89" s="38">
+        <v>2</v>
+      </c>
+      <c r="N89" s="38">
+        <v>37.5</v>
+      </c>
+      <c r="O89" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
+      <c r="W89" s="16"/>
+      <c r="X89" s="16"/>
+      <c r="Y89" s="16"/>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="5">
+        <v>325</v>
+      </c>
+      <c r="E90" s="5">
+        <v>300</v>
+      </c>
+      <c r="F90" s="5">
+        <v>300</v>
+      </c>
+      <c r="G90" s="5">
+        <v>45</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K90" s="5">
+        <v>100</v>
+      </c>
+      <c r="L90" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M90" s="5">
+        <v>2</v>
+      </c>
+      <c r="N90" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" s="20" customFormat="1">
+      <c r="A91" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="43">
+        <v>275</v>
+      </c>
+      <c r="E91" s="43">
+        <v>100</v>
+      </c>
+      <c r="F91" s="43">
+        <v>300</v>
+      </c>
+      <c r="G91" s="43">
+        <v>59</v>
+      </c>
+      <c r="H91" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I91" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J91" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K91" s="43">
+        <v>100</v>
+      </c>
+      <c r="L91" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M91" s="43">
+        <v>2</v>
+      </c>
+      <c r="N91" s="43">
+        <v>75</v>
+      </c>
+      <c r="O91" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P91" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+    </row>
+    <row r="92" spans="1:25" s="20" customFormat="1">
+      <c r="A92" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="43">
+        <v>275</v>
+      </c>
+      <c r="E92" s="43">
+        <v>100</v>
+      </c>
+      <c r="F92" s="43">
+        <v>300</v>
+      </c>
+      <c r="G92" s="43">
+        <v>59</v>
+      </c>
+      <c r="H92" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I92" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J92" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K92" s="43">
+        <v>100</v>
+      </c>
+      <c r="L92" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M92" s="43">
+        <v>2</v>
+      </c>
+      <c r="N92" s="43">
+        <v>75</v>
+      </c>
+      <c r="O92" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P92" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+    </row>
+    <row r="93" spans="1:25" s="20" customFormat="1">
+      <c r="A93" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="43">
+        <v>275</v>
+      </c>
+      <c r="E93" s="43">
+        <v>6000</v>
+      </c>
+      <c r="F93" s="43">
+        <v>40</v>
+      </c>
+      <c r="G93" s="43">
+        <v>69</v>
+      </c>
+      <c r="H93" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I93" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J93" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K93" s="43">
+        <v>100</v>
+      </c>
+      <c r="L93" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M93" s="43">
+        <v>2</v>
+      </c>
+      <c r="N93" s="43">
+        <v>10</v>
+      </c>
+      <c r="O93" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P93" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+    </row>
+    <row r="94" spans="1:25" s="20" customFormat="1">
+      <c r="A94" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="43">
+        <v>210</v>
+      </c>
+      <c r="E94" s="43">
+        <v>100</v>
+      </c>
+      <c r="F94" s="43">
+        <v>300</v>
+      </c>
+      <c r="G94" s="43">
+        <v>40</v>
+      </c>
+      <c r="H94" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I94" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J94" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K94" s="43">
+        <v>100</v>
+      </c>
+      <c r="L94" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M94" s="43">
+        <v>2</v>
+      </c>
+      <c r="N94" s="43">
+        <v>75</v>
+      </c>
+      <c r="O94" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P94" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+    </row>
+    <row r="95" spans="1:25" s="20" customFormat="1">
+      <c r="A95" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="43">
+        <v>210</v>
+      </c>
+      <c r="E95" s="43">
+        <v>150</v>
+      </c>
+      <c r="F95" s="43">
         <v>200</v>
       </c>
-      <c r="E59" s="5">
-        <v>100</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="G95" s="43">
+        <v>40</v>
+      </c>
+      <c r="H95" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I95" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J95" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K95" s="43">
+        <v>100</v>
+      </c>
+      <c r="L95" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M95" s="43">
+        <v>2</v>
+      </c>
+      <c r="N95" s="43">
+        <v>50</v>
+      </c>
+      <c r="O95" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P95" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+    </row>
+    <row r="96" spans="1:25" s="20" customFormat="1">
+      <c r="A96" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="43">
+        <v>210</v>
+      </c>
+      <c r="E96" s="43">
+        <v>6000</v>
+      </c>
+      <c r="F96" s="43">
+        <v>40</v>
+      </c>
+      <c r="G96" s="43">
+        <v>40</v>
+      </c>
+      <c r="H96" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I96" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J96" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K96" s="43">
+        <v>100</v>
+      </c>
+      <c r="L96" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M96" s="43">
+        <v>2</v>
+      </c>
+      <c r="N96" s="43">
+        <v>10</v>
+      </c>
+      <c r="O96" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+    </row>
+    <row r="97" spans="1:25" s="20" customFormat="1">
+      <c r="A97" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" s="43">
+        <v>210</v>
+      </c>
+      <c r="E97" s="43">
+        <v>10000</v>
+      </c>
+      <c r="F97" s="43">
+        <v>30</v>
+      </c>
+      <c r="G97" s="43">
+        <v>40</v>
+      </c>
+      <c r="H97" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I97" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="J97" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K97" s="43">
+        <v>100</v>
+      </c>
+      <c r="L97" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="M97" s="43">
+        <v>2</v>
+      </c>
+      <c r="N97" s="43">
+        <v>7.5</v>
+      </c>
+      <c r="O97" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P97" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+    </row>
+    <row r="98" spans="1:25" ht="15">
+      <c r="A98" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="40">
+        <v>200</v>
+      </c>
+      <c r="E98" s="40">
+        <v>10000</v>
+      </c>
+      <c r="F98" s="40">
+        <v>40</v>
+      </c>
+      <c r="G98" s="40">
+        <v>40</v>
+      </c>
+      <c r="H98" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I98" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J98" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K98" s="40">
+        <v>100</v>
+      </c>
+      <c r="L98" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M98" s="40">
+        <v>2</v>
+      </c>
+      <c r="N98" s="40">
+        <f>F98/4</f>
+        <v>10</v>
+      </c>
+      <c r="O98" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P98" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q98" s="47">
+        <v>3.9250240000000001</v>
+      </c>
+      <c r="R98" s="47">
+        <v>10.210380000000001</v>
+      </c>
+      <c r="S98" s="47">
+        <v>9.2975919999999999</v>
+      </c>
+      <c r="T98" s="47">
+        <v>9.2529339999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="15">
+      <c r="A99" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" s="40">
+        <v>200</v>
+      </c>
+      <c r="E99" s="40">
+        <v>6000</v>
+      </c>
+      <c r="F99" s="40">
+        <v>40</v>
+      </c>
+      <c r="G99" s="40">
+        <v>40</v>
+      </c>
+      <c r="H99" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I99" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J99" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K99" s="40">
+        <v>100</v>
+      </c>
+      <c r="L99" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M99" s="40">
+        <v>2</v>
+      </c>
+      <c r="N99" s="40">
+        <v>10</v>
+      </c>
+      <c r="O99" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P99" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q99" s="47">
+        <v>3.9199489999999999</v>
+      </c>
+      <c r="R99" s="47">
+        <v>10.169115</v>
+      </c>
+      <c r="S99" s="47">
+        <v>9.252936</v>
+      </c>
+      <c r="T99" s="47">
+        <v>9.2059040000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="40">
+        <v>200</v>
+      </c>
+      <c r="E100" s="40">
         <v>300</v>
       </c>
-      <c r="G59" s="5">
+      <c r="F100" s="40">
+        <v>200</v>
+      </c>
+      <c r="G100" s="40">
         <v>40</v>
       </c>
-      <c r="H59" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K59" s="5">
-        <v>100</v>
-      </c>
-      <c r="L59" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M59" s="5">
-        <v>1</v>
-      </c>
-      <c r="N59" s="5">
+      <c r="H100" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I100" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J100" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K100" s="40">
+        <v>100</v>
+      </c>
+      <c r="L100" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M100" s="40">
+        <v>2</v>
+      </c>
+      <c r="N100" s="40">
+        <v>50</v>
+      </c>
+      <c r="O100" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P100" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="40">
+        <v>200</v>
+      </c>
+      <c r="E101" s="40">
+        <v>100</v>
+      </c>
+      <c r="F101" s="40">
+        <v>300</v>
+      </c>
+      <c r="G101" s="40">
+        <v>40</v>
+      </c>
+      <c r="H101" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I101" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J101" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K101" s="40">
+        <v>100</v>
+      </c>
+      <c r="L101" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M101" s="40">
+        <v>2</v>
+      </c>
+      <c r="N101" s="40">
         <v>75</v>
       </c>
-      <c r="O59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="5" t="s">
+      <c r="O101" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P101" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="5">
+    <row r="102" spans="1:25">
+      <c r="A102" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="40">
+        <v>25</v>
+      </c>
+      <c r="E102" s="40">
+        <v>10000</v>
+      </c>
+      <c r="F102" s="40">
+        <v>35</v>
+      </c>
+      <c r="G102" s="40">
+        <v>40</v>
+      </c>
+      <c r="H102" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I102" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J102" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K102" s="40">
+        <v>100</v>
+      </c>
+      <c r="L102" s="40">
+        <v>42</v>
+      </c>
+      <c r="M102" s="40">
+        <v>2</v>
+      </c>
+      <c r="N102" s="40">
+        <f>F102/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="O102" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D103" s="40">
+        <v>25</v>
+      </c>
+      <c r="E103" s="40">
+        <v>100</v>
+      </c>
+      <c r="F103" s="40">
+        <v>325</v>
+      </c>
+      <c r="G103" s="40">
+        <v>40</v>
+      </c>
+      <c r="H103" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I103" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J103" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K103" s="40">
+        <v>100</v>
+      </c>
+      <c r="L103" s="40">
+        <v>42</v>
+      </c>
+      <c r="M103" s="40">
+        <v>2</v>
+      </c>
+      <c r="N103" s="40">
+        <f>F103/4</f>
+        <v>81.25</v>
+      </c>
+      <c r="O103" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P103" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="40">
         <v>200</v>
       </c>
-      <c r="E60" s="5">
-        <v>100</v>
-      </c>
-      <c r="F60" s="5">
-        <v>300</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="E104" s="40">
+        <v>10000</v>
+      </c>
+      <c r="F104" s="40">
+        <v>35</v>
+      </c>
+      <c r="G104" s="40">
         <v>40</v>
       </c>
-      <c r="H60" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K60" s="5">
-        <v>100</v>
-      </c>
-      <c r="L60" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M60" s="5">
+      <c r="H104" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I104" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J104" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K104" s="40">
+        <v>100</v>
+      </c>
+      <c r="L104" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M104" s="40">
         <v>2</v>
       </c>
-      <c r="N60" s="5">
-        <v>75</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" s="5" t="s">
+      <c r="N104" s="40">
+        <f>F104/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="O104" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P104" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="5">
+    <row r="105" spans="1:25">
+      <c r="A105" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" s="40">
         <v>200</v>
       </c>
-      <c r="E61" s="5">
-        <v>100</v>
-      </c>
-      <c r="F61" s="5">
-        <v>300</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="E105" s="40">
+        <v>100</v>
+      </c>
+      <c r="F105" s="40">
+        <v>325</v>
+      </c>
+      <c r="G105" s="40">
         <v>40</v>
       </c>
-      <c r="H61" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K61" s="5">
-        <v>100</v>
-      </c>
-      <c r="L61" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="M61" s="5">
-        <v>4</v>
-      </c>
-      <c r="N61" s="5">
-        <v>75</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="5" t="s">
+      <c r="H105" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I105" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J105" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K105" s="40">
+        <v>100</v>
+      </c>
+      <c r="L105" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M105" s="40">
+        <v>2</v>
+      </c>
+      <c r="N105" s="40">
+        <f t="shared" ref="N105:N107" si="1">F105/4</f>
+        <v>81.25</v>
+      </c>
+      <c r="O105" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P105" s="40" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" s="40">
+        <v>200</v>
+      </c>
+      <c r="E106" s="40">
+        <v>10000</v>
+      </c>
+      <c r="F106" s="40">
+        <v>35</v>
+      </c>
+      <c r="G106" s="40">
+        <v>40</v>
+      </c>
+      <c r="H106" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I106" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J106" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K106" s="40">
+        <v>100</v>
+      </c>
+      <c r="L106" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M106" s="40">
+        <v>2</v>
+      </c>
+      <c r="N106" s="40">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="O106" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P106" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="40">
+        <v>200</v>
+      </c>
+      <c r="E107" s="40">
+        <v>100</v>
+      </c>
+      <c r="F107" s="40">
+        <v>325</v>
+      </c>
+      <c r="G107" s="40">
+        <v>40</v>
+      </c>
+      <c r="H107" s="40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I107" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J107" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K107" s="40">
+        <v>100</v>
+      </c>
+      <c r="L107" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="M107" s="40">
+        <v>2</v>
+      </c>
+      <c r="N107" s="40">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+      <c r="O107" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P107" s="40" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
